--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_9_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_9_35.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3110955.128024344</v>
+        <v>3220096.381584472</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12383593.4843585</v>
+        <v>12134429.06144739</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8280493.146793769</v>
+        <v>8302940.022275792</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -668,16 +670,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>226.8275662230908</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>12.28773869504415</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>308.5974454495113</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>94.24014755885155</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -719,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>198.9430992003366</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -750,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>135.3343964518635</v>
+        <v>135.7303505775365</v>
       </c>
       <c r="H3" t="n">
-        <v>92.83156789269626</v>
+        <v>96.65565115906496</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>33.85559031833728</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,13 +788,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>134.3646350838588</v>
+        <v>141.7193093041456</v>
       </c>
       <c r="T3" t="n">
-        <v>192.0665623188214</v>
+        <v>193.6625353078282</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8092030868072</v>
+        <v>225.8352527003384</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -817,25 +819,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.6385546828073</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>50.72996354782443</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>74.03593649474006</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>26.33413227542123</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>64.83556544767967</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,19 +946,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.0434357771752</v>
       </c>
       <c r="V5" t="n">
-        <v>181.748902725795</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -987,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>135.3343964518635</v>
+        <v>135.3222619078506</v>
       </c>
       <c r="H6" t="n">
-        <v>92.83156789269626</v>
+        <v>92.71437374394026</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>19.80516901555391</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1023,13 +1025,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>134.3646350838588</v>
+        <v>134.1392412509879</v>
       </c>
       <c r="T6" t="n">
-        <v>192.0665623188214</v>
+        <v>192.01765159098</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8092030868072</v>
+        <v>225.8084047615432</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1057,22 +1059,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>111.6279906797555</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1114,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>181.0919561226086</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1133,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>411.5250233818693</v>
       </c>
       <c r="H8" t="n">
-        <v>121.7652976869583</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247052</v>
+        <v>64.83556544767976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>122.9354087744531</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1196,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>200.411828233291</v>
       </c>
     </row>
     <row r="9">
@@ -1224,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.3343964518635</v>
+        <v>135.3222619078506</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83156789269626</v>
+        <v>92.71437374394026</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>19.80516901555396</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,13 +1262,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3646350838588</v>
+        <v>134.1392412509879</v>
       </c>
       <c r="T9" t="n">
-        <v>192.0665623188214</v>
+        <v>192.01765159098</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8092030868072</v>
+        <v>225.8084047615432</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1291,25 +1293,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>204.1918485887679</v>
       </c>
       <c r="W10" t="n">
-        <v>67.22331801800635</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1382,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1424,7 +1426,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1525,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1537,10 +1539,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>35.99871774582714</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1579,13 +1581,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1594,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>130.3963959210116</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1619,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187863</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1762,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1825,13 +1827,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>279.6005772240733</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>9.795251606876494</v>
       </c>
     </row>
     <row r="17">
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>36.39209596079195</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>139.1886739667899</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2096,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2239,13 +2241,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2257,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,10 +2295,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>220.8531394779004</v>
       </c>
       <c r="V22" t="n">
-        <v>125.3789405564526</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>80.70399854267951</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2533,7 +2535,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2558,7 +2560,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2716,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,7 +2766,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>170.9457618790573</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2779,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>152.074115415945</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2947,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2962,13 +2964,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>160.6789846282036</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3004,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>35.66650366117342</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>105.9742079424032</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>22.6126310577748</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3247,13 +3249,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3421,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3436,13 +3438,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>20.3842717819797</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3478,7 +3480,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3490,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>152.2221689967083</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3563,13 +3565,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="39">
@@ -3664,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3718,10 +3720,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>67.99491930587892</v>
+        <v>139.5271979141359</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3910,13 +3912,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>53.76947475493767</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3961,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>126.441804108316</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4028,7 +4030,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
         <v>250.9057009881286</v>
@@ -4132,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>42.5313457611372</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,13 +4185,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>274.1357181000192</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2361.386702945269</v>
+        <v>1813.253594101052</v>
       </c>
       <c r="C2" t="n">
-        <v>1992.424186004858</v>
+        <v>1444.29107716064</v>
       </c>
       <c r="D2" t="n">
-        <v>1634.158487398107</v>
+        <v>1086.02537855389</v>
       </c>
       <c r="E2" t="n">
-        <v>1248.370234799863</v>
+        <v>700.2371259556458</v>
       </c>
       <c r="F2" t="n">
-        <v>837.3843300102556</v>
+        <v>471.118372194948</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345444</v>
+        <v>458.7065149272266</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>146.9919235640839</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>293.3053724073763</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816081</v>
+        <v>455.1003844723717</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872913</v>
+        <v>692.7231656905637</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>988.7937322481667</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230817</v>
+        <v>1483.55219637312</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.22848474084</v>
+        <v>1758.668415689754</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764997</v>
+        <v>2277.553464068625</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.25058172385</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400155</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="U2" t="n">
-        <v>2562.339328400155</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="V2" t="n">
-        <v>2562.339328400155</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="W2" t="n">
-        <v>2361.386702945269</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="X2" t="n">
-        <v>2361.386702945269</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="Y2" t="n">
-        <v>2361.386702945269</v>
+        <v>2199.853434165174</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>949.8902083093631</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>775.4371790282361</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>626.5027693669849</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>467.2653143615294</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>320.7307563884144</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182518</v>
+        <v>183.6293921686806</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>85.99742130093836</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>77.11538214995069</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>198.5384744202298</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625329</v>
+        <v>408.1293476730608</v>
       </c>
       <c r="M3" t="n">
-        <v>956.284402521753</v>
+        <v>1049.152557292955</v>
       </c>
       <c r="N3" t="n">
-        <v>1343.569531118698</v>
+        <v>1408.378866136616</v>
       </c>
       <c r="O3" t="n">
-        <v>1977.748514897737</v>
+        <v>2037.107513972037</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2524.714615879285</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400155</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="S3" t="n">
-        <v>2426.617474780096</v>
+        <v>2446.841948662051</v>
       </c>
       <c r="T3" t="n">
-        <v>2232.610846175226</v>
+        <v>2251.223226128891</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2023.106809259862</v>
       </c>
       <c r="V3" t="n">
-        <v>1769.368633815395</v>
+        <v>1787.95470102812</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1533.717344299918</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1325.865844094385</v>
       </c>
       <c r="Y3" t="n">
-        <v>1099.519478116707</v>
+        <v>1118.105545329431</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>305.0150268210029</v>
+        <v>833.9774911502419</v>
       </c>
       <c r="C4" t="n">
-        <v>305.0150268210029</v>
+        <v>665.041308222335</v>
       </c>
       <c r="D4" t="n">
-        <v>305.0150268210029</v>
+        <v>514.9246688099993</v>
       </c>
       <c r="E4" t="n">
-        <v>157.1019332386098</v>
+        <v>367.0115752276062</v>
       </c>
       <c r="F4" t="n">
-        <v>157.1019332386098</v>
+        <v>220.1216277296958</v>
       </c>
       <c r="G4" t="n">
-        <v>157.1019332386098</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312196</v>
+        <v>54.03452733018415</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>187.5436166159875</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>413.9157199341317</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>662.9824862666723</v>
       </c>
       <c r="N4" t="n">
-        <v>1123.088724245823</v>
+        <v>911.5616180092733</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1125.148384357428</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1284.388078993472</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.862713590079</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.23396574994</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="T4" t="n">
-        <v>1285.991578327895</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="U4" t="n">
-        <v>996.8732408317333</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="V4" t="n">
-        <v>996.8732408317333</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="W4" t="n">
-        <v>707.4560707947727</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="X4" t="n">
-        <v>707.4560707947727</v>
+        <v>1236.418535124012</v>
       </c>
       <c r="Y4" t="n">
-        <v>486.6634916512426</v>
+        <v>1015.625955980482</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1249.246750862032</v>
+        <v>1613.451665985993</v>
       </c>
       <c r="C5" t="n">
-        <v>880.2842339216199</v>
+        <v>1244.489149045581</v>
       </c>
       <c r="D5" t="n">
-        <v>522.0185353148695</v>
+        <v>1244.489149045581</v>
       </c>
       <c r="E5" t="n">
-        <v>136.2302827166252</v>
+        <v>858.7008964473371</v>
       </c>
       <c r="F5" t="n">
-        <v>129.2847819674218</v>
+        <v>447.7149916577295</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>421.1148580461929</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>117.2903254719911</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362822</v>
+        <v>189.9868871104781</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816088</v>
+        <v>447.8319447135512</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087292</v>
+        <v>804.6133007477385</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1233.270741187502</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230817</v>
+        <v>1673.478115539971</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>2075.818195082061</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2384.705143645557</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2568.493631507462</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2465.81558556073</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2257.170226019558</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400155</v>
+        <v>2003.590997961805</v>
       </c>
       <c r="V5" t="n">
-        <v>2378.754578172079</v>
+        <v>2003.590997961805</v>
       </c>
       <c r="W5" t="n">
-        <v>2025.985922901965</v>
+        <v>2003.590997961805</v>
       </c>
       <c r="X5" t="n">
-        <v>2025.985922901965</v>
+        <v>2003.590997961805</v>
       </c>
       <c r="Y5" t="n">
-        <v>1635.846590926153</v>
+        <v>1613.451665985993</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3045644835107</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8515352023837</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9171255411325</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6796705356769</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1451125625619</v>
       </c>
       <c r="G6" t="n">
-        <v>165.443278618252</v>
+        <v>165.4559591202886</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.80507655065196</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>240.1153828096209</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310613</v>
+        <v>598.8031573431329</v>
       </c>
       <c r="L6" t="n">
-        <v>593.0223835625329</v>
+        <v>896.1151064594476</v>
       </c>
       <c r="M6" t="n">
-        <v>1165.206974733667</v>
+        <v>1262.420995951773</v>
       </c>
       <c r="N6" t="n">
-        <v>1552.492103330613</v>
+        <v>1652.830557277516</v>
       </c>
       <c r="O6" t="n">
-        <v>1884.562538506774</v>
+        <v>1987.759237993047</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2237.235965858066</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.061870084021</v>
       </c>
       <c r="R6" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.061870084021</v>
       </c>
       <c r="S6" t="n">
-        <v>2426.617474780096</v>
+        <v>2426.567687002215</v>
       </c>
       <c r="T6" t="n">
-        <v>2232.610846175226</v>
+        <v>2232.610463172942</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.52116543401</v>
       </c>
       <c r="V6" t="n">
-        <v>1769.368633815395</v>
+        <v>1769.369057202267</v>
       </c>
       <c r="W6" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131700474065</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.280200268533</v>
       </c>
       <c r="Y6" t="n">
-        <v>1099.519478116707</v>
+        <v>1099.519901503579</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>903.4321187182921</v>
+        <v>833.6319074814764</v>
       </c>
       <c r="C7" t="n">
-        <v>734.4959357903853</v>
+        <v>664.6957245535696</v>
       </c>
       <c r="D7" t="n">
-        <v>621.7403896492181</v>
+        <v>514.5790851412338</v>
       </c>
       <c r="E7" t="n">
-        <v>473.8272960668249</v>
+        <v>366.6659915588407</v>
       </c>
       <c r="F7" t="n">
-        <v>473.8272960668249</v>
+        <v>219.7760440609304</v>
       </c>
       <c r="G7" t="n">
-        <v>305.8408313751036</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312196</v>
+        <v>77.98108068080552</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>250.8417132121973</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>527.5702436225445</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>829.7308018317424</v>
       </c>
       <c r="N7" t="n">
-        <v>1123.088724245823</v>
+        <v>1130.141273750634</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1391.602671897099</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1591.807384634811</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074497</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.862713590079</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="S7" t="n">
-        <v>1533.862713590079</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="T7" t="n">
-        <v>1533.862713590079</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="U7" t="n">
-        <v>1533.862713590079</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="V7" t="n">
-        <v>1533.862713590079</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="W7" t="n">
-        <v>1533.862713590079</v>
+        <v>1464.062502353264</v>
       </c>
       <c r="X7" t="n">
-        <v>1305.873162692062</v>
+        <v>1236.072951455246</v>
       </c>
       <c r="Y7" t="n">
-        <v>1085.080583548532</v>
+        <v>1015.280372311716</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1407.319888150871</v>
+        <v>1294.668437559719</v>
       </c>
       <c r="C8" t="n">
-        <v>1407.319888150871</v>
+        <v>925.7059206193069</v>
       </c>
       <c r="D8" t="n">
-        <v>1049.05418954412</v>
+        <v>925.7059206193069</v>
       </c>
       <c r="E8" t="n">
-        <v>663.2659369458761</v>
+        <v>539.9176680210627</v>
       </c>
       <c r="F8" t="n">
-        <v>252.2800321562685</v>
+        <v>532.9721672718592</v>
       </c>
       <c r="G8" t="n">
-        <v>240.6156859209615</v>
+        <v>117.2903254719912</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>117.2903254719912</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800309</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362813</v>
+        <v>189.9868871104779</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816077</v>
+        <v>447.8319447135518</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087291</v>
+        <v>804.6133007477397</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>1233.270741187503</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230816</v>
+        <v>1673.478115539972</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740839</v>
+        <v>2075.818195082061</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764996</v>
+        <v>2384.705143645557</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723849</v>
+        <v>2568.493631507462</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400154</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926625</v>
+        <v>2465.81558556073</v>
       </c>
       <c r="T8" t="n">
-        <v>2437.640120926625</v>
+        <v>2257.170226019558</v>
       </c>
       <c r="U8" t="n">
-        <v>2184.059060190804</v>
+        <v>2257.170226019558</v>
       </c>
       <c r="V8" t="n">
-        <v>2184.059060190804</v>
+        <v>2257.170226019558</v>
       </c>
       <c r="W8" t="n">
-        <v>2184.059060190804</v>
+        <v>2257.170226019558</v>
       </c>
       <c r="X8" t="n">
-        <v>2184.059060190804</v>
+        <v>1883.704467758478</v>
       </c>
       <c r="Y8" t="n">
-        <v>1793.919728214993</v>
+        <v>1681.26827762384</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3045644835107</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8515352023837</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9171255411325</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679670535677</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756898</v>
+        <v>302.145112562562</v>
       </c>
       <c r="G9" t="n">
-        <v>165.443278618252</v>
+        <v>165.4559591202886</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057899</v>
+        <v>71.80507655065199</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800309</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500113</v>
+        <v>240.1153828096208</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310612</v>
+        <v>598.803157343134</v>
       </c>
       <c r="L9" t="n">
-        <v>593.0223835625327</v>
+        <v>896.1151064594485</v>
       </c>
       <c r="M9" t="n">
-        <v>956.2844025217527</v>
+        <v>1262.420995951774</v>
       </c>
       <c r="N9" t="n">
-        <v>1552.492103330613</v>
+        <v>1652.830557277516</v>
       </c>
       <c r="O9" t="n">
-        <v>1884.562538506774</v>
+        <v>1987.759237993047</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2237.235965858066</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.061870084021</v>
       </c>
       <c r="R9" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.061870084021</v>
       </c>
       <c r="S9" t="n">
-        <v>2426.617474780096</v>
+        <v>2426.567687002215</v>
       </c>
       <c r="T9" t="n">
-        <v>2232.610846175226</v>
+        <v>2232.610463172942</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.52116543401</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.368633815395</v>
+        <v>1769.369057202267</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131700474065</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.280200268533</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.519478116707</v>
+        <v>1099.519901503579</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1087.683159487371</v>
+        <v>516.7826309711764</v>
       </c>
       <c r="C10" t="n">
-        <v>918.7469765594642</v>
+        <v>516.7826309711764</v>
       </c>
       <c r="D10" t="n">
-        <v>768.6303371471284</v>
+        <v>366.6659915588407</v>
       </c>
       <c r="E10" t="n">
-        <v>620.7172435647353</v>
+        <v>366.6659915588407</v>
       </c>
       <c r="F10" t="n">
-        <v>473.8272960668249</v>
+        <v>219.7760440609304</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8408313751036</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386097</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800309</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312193</v>
+        <v>77.98108068080546</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>250.8417132121971</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>527.5702436225441</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>829.7308018317418</v>
       </c>
       <c r="N10" t="n">
-        <v>1123.088724245823</v>
+        <v>1130.141273750633</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1391.602671897099</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1591.80738463481</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074497</v>
+        <v>1646.983670153877</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.862713590079</v>
+        <v>1544.862307910903</v>
       </c>
       <c r="S10" t="n">
-        <v>1337.23396574994</v>
+        <v>1348.412641916872</v>
       </c>
       <c r="T10" t="n">
-        <v>1337.23396574994</v>
+        <v>1125.478067458853</v>
       </c>
       <c r="U10" t="n">
-        <v>1337.23396574994</v>
+        <v>1125.478067458853</v>
       </c>
       <c r="V10" t="n">
-        <v>1337.23396574994</v>
+        <v>919.2236749449463</v>
       </c>
       <c r="W10" t="n">
-        <v>1269.331624317611</v>
+        <v>919.2236749449463</v>
       </c>
       <c r="X10" t="n">
-        <v>1269.331624317611</v>
+        <v>919.2236749449463</v>
       </c>
       <c r="Y10" t="n">
-        <v>1269.331624317611</v>
+        <v>698.4310958014162</v>
       </c>
     </row>
     <row r="11">
@@ -5021,55 +5023,55 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637306</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>784.581113480496</v>
+        <v>988.1395539230172</v>
       </c>
       <c r="C13" t="n">
-        <v>615.6449305525891</v>
+        <v>819.2033709951103</v>
       </c>
       <c r="D13" t="n">
-        <v>465.5282911402534</v>
+        <v>669.0867315827745</v>
       </c>
       <c r="E13" t="n">
-        <v>317.6151975578603</v>
+        <v>521.1736380003814</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578603</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578603</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5227,22 +5229,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1618.570148794804</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1390.580597896787</v>
       </c>
       <c r="Y13" t="n">
-        <v>784.581113480496</v>
+        <v>1169.788018753257</v>
       </c>
     </row>
     <row r="14">
@@ -5261,10 +5263,10 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5273,28 +5275,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5306,7 +5308,7 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
@@ -5352,31 +5354,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>94.56320294380271</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>244.2098454714574</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>244.2098454714574</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>739.5354516872161</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M15" t="n">
-        <v>1336.913939313768</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N15" t="n">
-        <v>1964.511902868375</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O15" t="n">
-        <v>2516.421633107662</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>702.4944101284095</v>
+        <v>724.7519863413023</v>
       </c>
       <c r="C16" t="n">
-        <v>533.5582272005026</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="D16" t="n">
-        <v>383.4415877881669</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
-        <v>235.5284942057738</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>235.5284942057738</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5434,52 +5436,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1151.276540169957</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>923.2869892719397</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>702.4944101284095</v>
+        <v>906.400451171542</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,25 +5512,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5546,19 +5548,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C18" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D18" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F18" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G18" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>2381.235169913446</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>2715.159942084666</v>
       </c>
       <c r="L18" t="n">
-        <v>738.7889117913853</v>
+        <v>3210.485548300425</v>
       </c>
       <c r="M18" t="n">
-        <v>1336.167399417937</v>
+        <v>3807.864035926977</v>
       </c>
       <c r="N18" t="n">
-        <v>1336.167399417937</v>
+        <v>3807.864035926977</v>
       </c>
       <c r="O18" t="n">
-        <v>1888.077129657224</v>
+        <v>4033.948342528643</v>
       </c>
       <c r="P18" t="n">
-        <v>2311.700279152292</v>
+        <v>4457.571492023711</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R18" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S18" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T18" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U18" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V18" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W18" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X18" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y18" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3342.537229081859</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C19" t="n">
-        <v>3173.601046153952</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D19" t="n">
-        <v>3023.484406741616</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="E19" t="n">
-        <v>2875.571313159223</v>
+        <v>379.8591585748671</v>
       </c>
       <c r="F19" t="n">
-        <v>2728.681365661313</v>
+        <v>379.8591585748671</v>
       </c>
       <c r="G19" t="n">
-        <v>2561.485266376193</v>
+        <v>212.6630592897471</v>
       </c>
       <c r="H19" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>4440.9326143059</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T19" t="n">
-        <v>4221.331149328841</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U19" t="n">
-        <v>4080.736529160366</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V19" t="n">
-        <v>4080.736529160366</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W19" t="n">
-        <v>3791.319359123406</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X19" t="n">
-        <v>3563.329808225389</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y19" t="n">
-        <v>3342.537229081859</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="20">
@@ -5732,52 +5734,52 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
         <v>4405.252601474784</v>
@@ -5792,7 +5794,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,31 +5828,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,13 +5886,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3173.601046153952</v>
+        <v>3044.50749608713</v>
       </c>
       <c r="C22" t="n">
-        <v>3173.601046153952</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="D22" t="n">
-        <v>3023.484406741616</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="E22" t="n">
         <v>2875.571313159223</v>
@@ -5932,28 +5934,28 @@
         <v>4690.833152398593</v>
       </c>
       <c r="R22" t="n">
-        <v>4690.833152398593</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S22" t="n">
-        <v>4507.978318053498</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T22" t="n">
-        <v>4288.376853076439</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U22" t="n">
-        <v>3999.301626420637</v>
+        <v>3998.247170058235</v>
       </c>
       <c r="V22" t="n">
-        <v>3872.65623191917</v>
+        <v>3743.562681852348</v>
       </c>
       <c r="W22" t="n">
-        <v>3583.239061882209</v>
+        <v>3454.145511815387</v>
       </c>
       <c r="X22" t="n">
-        <v>3355.249510984192</v>
+        <v>3226.15596091737</v>
       </c>
       <c r="Y22" t="n">
-        <v>3355.249510984192</v>
+        <v>3226.15596091737</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192508</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,40 +6001,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6066,25 +6068,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637306</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N24" t="n">
-        <v>1814.118720444889</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O24" t="n">
-        <v>2366.028450684176</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P24" t="n">
-        <v>2366.028450684176</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>950.1865537761979</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>781.250370848291</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>631.1337314359553</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E25" t="n">
-        <v>631.1337314359553</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F25" t="n">
-        <v>484.2437839380449</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>317.0476846529248</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.3358534951229</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>950.1865537761979</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6300,28 +6302,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>740.5562989961525</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1337.934786622704</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N27" t="n">
-        <v>1965.532750177311</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O27" t="n">
-        <v>2517.442480416598</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3044.50749608713</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C28" t="n">
-        <v>2875.571313159223</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D28" t="n">
-        <v>2875.571313159223</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E28" t="n">
-        <v>2875.571313159223</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F28" t="n">
-        <v>2728.681365661313</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>4440.9326143059</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U28" t="n">
-        <v>4151.857387650098</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V28" t="n">
-        <v>3897.172899444211</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W28" t="n">
-        <v>3607.75572940725</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X28" t="n">
-        <v>3379.766178509233</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y28" t="n">
-        <v>3226.15596091737</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="29">
@@ -6449,31 +6451,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6549,16 +6551,16 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1702.079034721979</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>948.5505208511906</v>
+        <v>869.9745311434712</v>
       </c>
       <c r="C31" t="n">
-        <v>779.6143379232838</v>
+        <v>701.0383482155643</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>550.9217088032285</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>403.0086152208354</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>256.118667722925</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1941.434309135586</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V31" t="n">
-        <v>1686.749820929699</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W31" t="n">
-        <v>1397.332650892738</v>
+        <v>1500.405126015258</v>
       </c>
       <c r="X31" t="n">
-        <v>1169.343099994721</v>
+        <v>1272.415575117241</v>
       </c>
       <c r="Y31" t="n">
-        <v>948.5505208511906</v>
+        <v>1051.622995973711</v>
       </c>
     </row>
     <row r="32">
@@ -6674,40 +6676,40 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355937</v>
@@ -6716,10 +6718,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6731,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6780,25 +6782,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M33" t="n">
-        <v>1174.766565373399</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N33" t="n">
-        <v>1802.364528928006</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O33" t="n">
-        <v>2354.274259167293</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C34" t="n">
-        <v>513.8536007400712</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D34" t="n">
-        <v>513.8536007400712</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E34" t="n">
-        <v>365.9405071576781</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F34" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>1205.711814750802</v>
       </c>
     </row>
     <row r="35">
@@ -6926,10 +6928,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
@@ -6944,7 +6946,7 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355937</v>
@@ -6974,10 +6976,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C36" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D36" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G36" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>2381.235169913446</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>2715.159942084666</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>2715.159942084666</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>3312.538429711218</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>3869.022106831312</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>4420.931837070599</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P36" t="n">
-        <v>4420.931837070599</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S36" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T36" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U36" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V36" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W36" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X36" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y36" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="37">
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>762.5348780504994</v>
+        <v>869.9745311434712</v>
       </c>
       <c r="C37" t="n">
-        <v>762.5348780504994</v>
+        <v>701.0383482155643</v>
       </c>
       <c r="D37" t="n">
-        <v>612.4182386381636</v>
+        <v>550.9217088032285</v>
       </c>
       <c r="E37" t="n">
-        <v>464.5051450557705</v>
+        <v>403.0086152208354</v>
       </c>
       <c r="F37" t="n">
-        <v>317.6151975578602</v>
+        <v>256.118667722925</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7117,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1500.405126015258</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1272.415575117241</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.5348780504994</v>
+        <v>1051.622995973711</v>
       </c>
     </row>
     <row r="38">
@@ -7169,22 +7171,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7211,10 +7213,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C39" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D39" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G39" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>2233.355914590558</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>2383.002557118213</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>2716.927329289434</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>3212.252935505192</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>3809.631423131744</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>4437.229386686351</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S39" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T39" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U39" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V39" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W39" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X39" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y39" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="40">
@@ -7306,10 +7308,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>948.5505208511906</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C40" t="n">
-        <v>779.6143379232838</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D40" t="n">
         <v>779.6143379232838</v>
@@ -7354,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1686.749820929699</v>
+        <v>1547.449290305074</v>
       </c>
       <c r="W40" t="n">
-        <v>1397.332650892738</v>
+        <v>1547.449290305074</v>
       </c>
       <c r="X40" t="n">
-        <v>1169.343099994721</v>
+        <v>1319.459739407057</v>
       </c>
       <c r="Y40" t="n">
-        <v>948.5505208511906</v>
+        <v>1098.667160263527</v>
       </c>
     </row>
     <row r="41">
@@ -7403,22 +7405,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355937</v>
@@ -7427,10 +7429,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7497,16 +7499,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>1700.311647517213</v>
       </c>
       <c r="O42" t="n">
-        <v>2319.799627685893</v>
+        <v>2252.2213777565</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,52 +7545,52 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>931.4710609784063</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C43" t="n">
-        <v>762.5348780504994</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D43" t="n">
-        <v>612.4182386381636</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E43" t="n">
-        <v>464.5051450557705</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F43" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
@@ -7597,22 +7599,22 @@
         <v>2379.917379832663</v>
       </c>
       <c r="T43" t="n">
-        <v>2160.315914855604</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U43" t="n">
-        <v>2106.003314093041</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V43" t="n">
-        <v>1851.318825887154</v>
+        <v>1836.157664970974</v>
       </c>
       <c r="W43" t="n">
-        <v>1561.901655850193</v>
+        <v>1546.740494934014</v>
       </c>
       <c r="X43" t="n">
-        <v>1333.912104952176</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y43" t="n">
-        <v>1113.119525808646</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="44">
@@ -7637,19 +7639,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7658,7 +7660,7 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7673,10 +7675,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
         <v>4151.812499466573</v>
@@ -7688,7 +7690,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3081.170977615665</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C45" t="n">
-        <v>2906.717948334538</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D45" t="n">
-        <v>2757.783538673287</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>2598.546083667831</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
-        <v>2452.011525694716</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G45" t="n">
-        <v>2316.252859740624</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>2233.355914590557</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>2383.002557118212</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>2716.927329289433</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L45" t="n">
-        <v>3212.252935505192</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M45" t="n">
-        <v>3511.325458604698</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N45" t="n">
-        <v>4138.923422159305</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S45" t="n">
-        <v>4572.622366301205</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T45" t="n">
-        <v>4382.415660022979</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U45" t="n">
-        <v>4154.387578566164</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V45" t="n">
-        <v>3919.235470334421</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W45" t="n">
-        <v>3664.99811360622</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X45" t="n">
-        <v>3457.146613400687</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y45" t="n">
-        <v>3249.386314635733</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="46">
@@ -7780,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>707.672526468518</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C46" t="n">
-        <v>538.7363435406111</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D46" t="n">
-        <v>388.6197041282753</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E46" t="n">
-        <v>240.7066105458822</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797186</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -7831,25 +7833,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U46" t="n">
-        <v>1700.556314752913</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V46" t="n">
-        <v>1445.871826547026</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W46" t="n">
-        <v>1156.454656510065</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X46" t="n">
-        <v>928.4651056120481</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y46" t="n">
-        <v>707.672526468518</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
   </sheetData>
@@ -7976,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -7988,19 +7990,19 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>191.1953109993611</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>26.19461818159724</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8064,16 +8066,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>380.8926041660669</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>74.6388266770993</v>
       </c>
       <c r="O3" t="n">
-        <v>305.1601501039158</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>199.7516311504064</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -8292,16 +8294,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>173.7639243740396</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>211.0329012241559</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8310,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>20.18437503906576</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8529,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>173.763924374041</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8541,19 +8543,19 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>211.0329012241564</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154992</v>
+        <v>20.18437503906583</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9161,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>-1.477928890381008e-12</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23413,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23425,10 +23427,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>109.4223302771041</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23467,13 +23469,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>88.18825743108317</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23713,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>6.922421112517668</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>208.7894017452183</v>
       </c>
     </row>
     <row r="17">
@@ -23887,25 +23889,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>103.9026168854319</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23938,16 +23940,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>146.9958004224542</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24127,13 +24129,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,10 +24183,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>65.33133491134373</v>
       </c>
       <c r="V22" t="n">
-        <v>126.7587027673754</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24361,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>65.54986409393022</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0.5618377758860191</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24421,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24604,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,7 +24654,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>46.45968844823099</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>66.51053793614983</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24850,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>4.845153664065236</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>250.5179707280707</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25072,25 +25074,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>73.85777223953414</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>122.8084169651565</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25135,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25309,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25324,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>145.1398665102892</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25366,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25378,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>66.36248435538653</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25552,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25606,10 +25608,10 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>184.1427240179491</v>
+        <v>112.6104454096921</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25798,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,10 +25839,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>232.4149996343065</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25849,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>99.26785128072119</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26020,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>106.0841272570752</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,13 +26073,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>12.04875628922491</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>729248.7790673228</v>
+        <v>752061.2222185583</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>729248.7790673228</v>
+        <v>729054.956522705</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>729248.7790673228</v>
+        <v>729054.9565227051</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>711742.7704138664</v>
+        <v>711742.7704138665</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>711742.7704138665</v>
+        <v>711742.7704138664</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>711742.7704138665</v>
+        <v>711742.7704138664</v>
       </c>
     </row>
     <row r="10">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>711742.7704138664</v>
+        <v>711742.7704138665</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>711742.7704138664</v>
+        <v>711742.7704138665</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>711742.7704138664</v>
+        <v>711742.7704138665</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312481</v>
+        <v>718411.5486312484</v>
       </c>
       <c r="C2" t="n">
         <v>718411.5486312479</v>
@@ -26320,40 +26322,40 @@
         <v>718411.5486312481</v>
       </c>
       <c r="E2" t="n">
+        <v>706253.2747287555</v>
+      </c>
+      <c r="F2" t="n">
+        <v>706253.2747287555</v>
+      </c>
+      <c r="G2" t="n">
+        <v>706253.2747287551</v>
+      </c>
+      <c r="H2" t="n">
+        <v>706253.2747287554</v>
+      </c>
+      <c r="I2" t="n">
+        <v>706253.2747287552</v>
+      </c>
+      <c r="J2" t="n">
+        <v>706253.2747287552</v>
+      </c>
+      <c r="K2" t="n">
         <v>706253.2747287556</v>
       </c>
-      <c r="F2" t="n">
+      <c r="L2" t="n">
         <v>706253.2747287554</v>
-      </c>
-      <c r="G2" t="n">
-        <v>706253.274728755</v>
-      </c>
-      <c r="H2" t="n">
-        <v>706253.2747287551</v>
-      </c>
-      <c r="I2" t="n">
-        <v>706253.2747287551</v>
-      </c>
-      <c r="J2" t="n">
-        <v>706253.2747287551</v>
-      </c>
-      <c r="K2" t="n">
-        <v>706253.2747287551</v>
-      </c>
-      <c r="L2" t="n">
-        <v>706253.2747287551</v>
       </c>
       <c r="M2" t="n">
         <v>706253.2747287556</v>
       </c>
       <c r="N2" t="n">
-        <v>706253.274728755</v>
+        <v>706253.2747287557</v>
       </c>
       <c r="O2" t="n">
-        <v>706253.274728755</v>
+        <v>706253.2747287554</v>
       </c>
       <c r="P2" t="n">
-        <v>706253.2747287554</v>
+        <v>706253.2747287556</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>939682.9358753986</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172764.3597898926</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245461</v>
+        <v>500888.8677457509</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,22 +26389,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>169414.0168260479</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.62584001373034e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289268</v>
+        <v>130884.4569042351</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>130705.5901165056</v>
+        <v>159785.8388151599</v>
       </c>
       <c r="C4" t="n">
-        <v>130705.5901165056</v>
+        <v>129066.7547252479</v>
       </c>
       <c r="D4" t="n">
-        <v>130705.5901165056</v>
+        <v>129066.754725248</v>
       </c>
       <c r="E4" t="n">
-        <v>6287.480531695071</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="F4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="G4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695024</v>
       </c>
       <c r="H4" t="n">
         <v>6287.480531695051</v>
@@ -26445,19 +26447,19 @@
         <v>6287.480531695051</v>
       </c>
       <c r="L4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="M4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="N4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="O4" t="n">
         <v>6287.480531695051</v>
       </c>
       <c r="P4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>89345.0748969909</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>93481.0893615096</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>93481.08936150958</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-619983.5975010217</v>
+        <v>-470402.3009563009</v>
       </c>
       <c r="C6" t="n">
-        <v>494768.1860748978</v>
+        <v>323099.3447545979</v>
       </c>
       <c r="D6" t="n">
-        <v>494768.1860748978</v>
+        <v>495863.704544491</v>
       </c>
       <c r="E6" t="n">
-        <v>91357.82274860737</v>
+        <v>97954.39662740236</v>
       </c>
       <c r="F6" t="n">
+        <v>598843.2643731531</v>
+      </c>
+      <c r="G6" t="n">
+        <v>598843.264373153</v>
+      </c>
+      <c r="H6" t="n">
         <v>598843.2643731532</v>
       </c>
-      <c r="G6" t="n">
-        <v>598843.2643731529</v>
-      </c>
-      <c r="H6" t="n">
-        <v>598843.264373153</v>
-      </c>
       <c r="I6" t="n">
-        <v>598843.264373153</v>
+        <v>598843.2643731531</v>
       </c>
       <c r="J6" t="n">
-        <v>431238.0865631704</v>
+        <v>429429.2475471052</v>
       </c>
       <c r="K6" t="n">
-        <v>598843.264373153</v>
+        <v>598843.2643731534</v>
       </c>
       <c r="L6" t="n">
-        <v>598843.264373153</v>
+        <v>598843.2643731531</v>
       </c>
       <c r="M6" t="n">
-        <v>466235.9706442266</v>
+        <v>467958.8074689183</v>
       </c>
       <c r="N6" t="n">
-        <v>598843.2643731529</v>
+        <v>598843.2643731536</v>
       </c>
       <c r="O6" t="n">
-        <v>598843.2643731529</v>
+        <v>598843.2643731531</v>
       </c>
       <c r="P6" t="n">
-        <v>598843.2643731532</v>
+        <v>598843.2643731536</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>749.9809564976108</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>939.7063906498448</v>
       </c>
       <c r="D3" t="n">
-        <v>934.064892117539</v>
+        <v>939.7063906498443</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000386</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26957,19 +26959,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>749.9809564976108</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>189.725434152234</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241348</v>
+        <v>428.2691096918295</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26987,7 +26989,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26996,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.12345599961</v>
+        <v>525.210096564402</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.12345599961</v>
+        <v>525.210096564402</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.12345599961</v>
+        <v>525.210096564402</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27388,10 +27390,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>180.0484795186207</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27427,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>140.315783973424</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>209.8976922291835</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>251.1044530022292</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>150.2978695170764</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27537,25 +27539,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>150.2028876639205</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>114.7793764994862</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>116.4834600519698</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.4475243713015</v>
       </c>
       <c r="T4" t="n">
-        <v>170.0187324493875</v>
+        <v>222.1670476323163</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.245260737819</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>151.6737188942971</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>385.1908911064481</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,19 +27666,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>146.0033557443399</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27777,22 +27779,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>36.98748233845683</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.161060211447</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.4906595130011</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,22 +27821,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>105.4310422139824</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27853,22 +27855,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>179.2532548754471</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,10 +27906,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0434357771752</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27916,10 +27918,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>185.8261104227626</v>
       </c>
     </row>
     <row r="9">
@@ -28011,13 +28013,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28026,10 +28028,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.161060211447</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.4906595130011</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,22 +28064,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>47.94579473506013</v>
       </c>
       <c r="W10" t="n">
-        <v>219.2996803185846</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.014998820090895</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>30.87735666625589</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979354</v>
+        <v>116.2357420115544</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>255.8942561066899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>383.5191561611376</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>475.7894263014944</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>529.4074115682859</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>537.9737769658691</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>507.9933824485902</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>433.5605990775962</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>325.5859538330909</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>189.3909196325349</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>68.70428561282135</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>13.1981573349479</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.2411999056072716</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.00912071134716</v>
+        <v>1.613166585674106</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>15.5797930774315</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>55.54104253307779</v>
       </c>
       <c r="J3" t="n">
-        <v>189.8178475575841</v>
+        <v>152.4088658859909</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178438</v>
+        <v>260.491027126156</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>350.2623325605116</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>408.7396212911979</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>419.5577428240738</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>383.813367425716</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>308.04406494333</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>205.9192996028912</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>100.1578341526432</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>29.96386179969226</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>6.502193386993435</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1061293806364544</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.684379313654579</v>
+        <v>1.352424675651429</v>
       </c>
       <c r="H4" t="n">
-        <v>14.97566335231072</v>
+        <v>12.02428484351908</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>40.67109842777208</v>
       </c>
       <c r="J4" t="n">
-        <v>119.0856174753787</v>
+        <v>95.61642456855604</v>
       </c>
       <c r="K4" t="n">
-        <v>195.6942511682319</v>
+        <v>157.1271577711387</v>
       </c>
       <c r="L4" t="n">
-        <v>250.4212663227908</v>
+        <v>201.0686649600316</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849627</v>
+        <v>211.9987152932508</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>206.9578596840047</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>191.1590805184402</v>
       </c>
       <c r="P4" t="n">
-        <v>203.7180217169137</v>
+        <v>163.569617135151</v>
       </c>
       <c r="Q4" t="n">
-        <v>141.0437987097484</v>
+        <v>113.2471244311392</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>60.8099313251997</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>23.56907366567081</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>5.778541795965196</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.07376861867189623</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.777714133265705</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.68851486730741</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979354</v>
+        <v>145.6403241227262</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>320.6287649182604</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>480.5394041793978</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>596.1516230853282</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>663.3335468027922</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>674.0669770839335</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>636.5023321712725</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>543.2400145062753</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>407.9506271086972</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>237.301835423752</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>86.08466081179233</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.53694361837063</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3022171306612563</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.00912071134716</v>
+        <v>2.021255255360044</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.52107049255621</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.59146383586116</v>
       </c>
       <c r="J6" t="n">
-        <v>189.8178475575841</v>
+        <v>190.9642958583803</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178438</v>
+        <v>326.3883979675032</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>438.8694798973639</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>512.1399829041653</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>525.694804331558</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>480.9080431470013</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>385.9711022274806</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>258.0114603157838</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>125.4951289248982</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.54392985284991</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.147077103841577</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1329773194315819</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.684379313654579</v>
+        <v>1.694552507729228</v>
       </c>
       <c r="H7" t="n">
-        <v>14.97566335231072</v>
+        <v>15.0661122959926</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.95981541425717</v>
       </c>
       <c r="J7" t="n">
-        <v>119.0856174753787</v>
+        <v>119.8048622964564</v>
       </c>
       <c r="K7" t="n">
-        <v>195.6942511682319</v>
+        <v>196.8761913525412</v>
       </c>
       <c r="L7" t="n">
-        <v>250.4212663227908</v>
+        <v>251.9337428309437</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849627</v>
+        <v>265.6288080979552</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>259.3127487509647</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>239.5172944561277</v>
       </c>
       <c r="P7" t="n">
-        <v>203.7180217169137</v>
+        <v>204.9484232984513</v>
       </c>
       <c r="Q7" t="n">
-        <v>141.0437987097484</v>
+        <v>141.8956649881266</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>76.1932427566251</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.53142870288118</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.240360714843064</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09243013678523074</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.777714133265702</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336177</v>
+        <v>38.68851486730739</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979354</v>
+        <v>145.6403241227262</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>320.6287649182602</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>480.5394041793975</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>596.1516230853279</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>663.3335468027918</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342222</v>
+        <v>674.066977083933</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>636.5023321712722</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>543.2400145062751</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>407.9506271086969</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>237.3018354237519</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745095</v>
+        <v>86.08466081179229</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.53694361837062</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744846</v>
+        <v>0.3022171306612562</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.009120711347159</v>
+        <v>2.021255255360042</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.5210704925562</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.59146383586112</v>
       </c>
       <c r="J9" t="n">
-        <v>189.8178475575841</v>
+        <v>190.9642958583802</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178437</v>
+        <v>326.388397967503</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>438.8694798973636</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040587</v>
+        <v>512.1399829041651</v>
       </c>
       <c r="N9" t="n">
-        <v>522.538811676207</v>
+        <v>525.6948043315577</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405673</v>
+        <v>480.908043147001</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378624</v>
+        <v>385.9711022274804</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>258.0114603157837</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>125.4951289248981</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.54392985284989</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.147077103841571</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1329773194315818</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.684379313654578</v>
+        <v>1.694552507729227</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231072</v>
+        <v>15.06611229599259</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.95981541425714</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0856174753787</v>
+        <v>119.8048622964563</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>196.8761913525411</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227907</v>
+        <v>251.9337428309435</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849626</v>
+        <v>265.6288080979551</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>259.3127487509645</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>239.5172944561276</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169137</v>
+        <v>204.9484232984512</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.0437987097484</v>
+        <v>141.8956649881265</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759584</v>
+        <v>76.19324275662505</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.53142870288116</v>
       </c>
       <c r="T10" t="n">
-        <v>7.19689343106956</v>
+        <v>7.240360714843059</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09243013678523068</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31838,16 +31840,16 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>270.9486956727256</v>
+        <v>245.8118639189582</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
@@ -31862,7 +31864,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,13 +32068,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>100.2764607028594</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32081,34 +32083,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32317,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>370.9642309107733</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>346.7710205055867</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>581.3243739860823</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>282.8216163968498</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>328.9038320421819</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33020,31 +33022,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>416.4300581532626</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>169.9530009943068</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33269,19 +33271,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>338.6542681503486</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>466.5925882502527</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33409,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33500,37 +33502,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>620.1193660647493</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>297.7596336167232</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33740,16 +33742,16 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>693.4464364470641</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>164.9290651940687</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33758,7 +33760,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33968,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33986,7 +33988,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558004</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34120,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34211,37 +34213,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>164.9290651940687</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>437.853104691376</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34442,19 +34444,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>444.2274915982877</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>243.9449667520774</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>163.429305116157</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>240.0230113315071</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>299.0611783410131</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>499.7560243686393</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>277.8951710269035</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>524.1263114938092</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>315.5952546185461</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>25.57123921932421</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>122.649588151797</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>211.7079527806374</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>362.8548574178398</v>
       </c>
       <c r="O3" t="n">
-        <v>640.5848321000387</v>
+        <v>635.0794422580011</v>
       </c>
       <c r="P3" t="n">
-        <v>449.4311602739386</v>
+        <v>492.5324261689369</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308545</v>
+        <v>65.9375255168697</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>2.257244451883267</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>134.8576659452559</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>228.6586902203478</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468033</v>
+        <v>251.5825922550914</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>251.0900320632333</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>215.7442084324799</v>
       </c>
       <c r="P4" t="n">
-        <v>200.9965809818072</v>
+        <v>160.8481764000445</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>27.08508117944484</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>139.5828603915741</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>260.4495531344173</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>360.385208115341</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>432.9873135755195</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>444.6539134873425</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>406.4041207495858</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>312.0070187510058</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>185.6449372342477</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>21.71629760961991</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091739</v>
+        <v>190.2177045321224</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>362.3108833671837</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>300.3151001174897</v>
       </c>
       <c r="M6" t="n">
-        <v>577.9642335061964</v>
+        <v>370.005948982147</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>394.3530922482247</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>338.3117987025568</v>
       </c>
       <c r="P6" t="n">
-        <v>568.1422977634694</v>
+        <v>251.9966948131504</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308545</v>
+        <v>328.1069739656114</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>26.44568217978365</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>174.6066995266583</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>279.5237680912598</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468033</v>
+        <v>305.2126850597958</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>303.4449211301933</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>264.1024223701674</v>
       </c>
       <c r="P7" t="n">
-        <v>200.9965809818072</v>
+        <v>202.2269825633448</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>55.73362173643217</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>139.5828603915739</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407336</v>
+        <v>260.449553134417</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>360.3852081153406</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>432.9873135755191</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376313</v>
+        <v>444.6539134873421</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>406.4041207495854</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>312.0070187510055</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>185.6449372342475</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939898</v>
+        <v>21.71629760961977</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091737</v>
+        <v>190.2177045321223</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434847</v>
+        <v>362.310883367185</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>300.3151001174895</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>370.0059489821468</v>
       </c>
       <c r="N9" t="n">
-        <v>602.2300008170301</v>
+        <v>394.3530922482245</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961229</v>
+        <v>338.3117987025565</v>
       </c>
       <c r="P9" t="n">
-        <v>568.1422977634693</v>
+        <v>251.9966948131502</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308545</v>
+        <v>328.1069739656112</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870591</v>
+        <v>26.44568217978357</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>174.6066995266582</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>279.5237680912596</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468032</v>
+        <v>305.2126850597957</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>303.4449211301932</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>264.1024223701672</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818071</v>
+        <v>202.2269825633446</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>55.73362173643208</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35428,7 +35430,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924738</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35486,16 +35488,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>128.8146617507074</v>
+        <v>103.6778299969399</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
@@ -35510,7 +35512,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0.7540807028594299</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35729,25 +35731,25 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,10 +35965,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35975,16 +35977,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>228.3679864663288</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>206.7892464195652</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462693</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>439.190340064064</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>140.6875824748315</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>188.9220579561604</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36598,13 +36600,13 @@
         <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M26" t="n">
         <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
         <v>696.488651224316</v>
@@ -36668,31 +36670,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>35.9785935799765</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36832,7 +36834,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
@@ -36917,19 +36919,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>196.0580237059041</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462693</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37150,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>477.985332142731</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>163.785226202393</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37388,16 +37390,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>562.1047243637308</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37406,7 +37408,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37549,7 +37551,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37616,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37634,7 +37636,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.165419911356</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,22 +37864,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>22.33282074962425</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>303.8786972770457</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38090,19 +38092,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>302.0934576762694</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_9_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_9_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3220096.381584472</v>
+        <v>3215940.195276507</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -661,25 +661,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>226.8275662230908</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>12.28773869504415</v>
+        <v>412.2877386950441</v>
       </c>
       <c r="H2" t="n">
-        <v>308.5974454495113</v>
+        <v>251.0172508647437</v>
       </c>
       <c r="I2" t="n">
-        <v>94.24014755885155</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>140.315783973424</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>209.8976922291835</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -879,10 +879,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>28.15826128764012</v>
       </c>
       <c r="X4" t="n">
-        <v>74.03593649474006</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>26.33413227542123</v>
+        <v>11.52502338186935</v>
       </c>
       <c r="H5" t="n">
-        <v>300.7862872484598</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>64.83556544767967</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,19 +949,19 @@
         <v>122.935408774453</v>
       </c>
       <c r="T5" t="n">
-        <v>206.5589059457607</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.0434357771752</v>
+        <v>156.5818672176181</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -995,7 +995,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I6" t="n">
-        <v>19.80516901555391</v>
+        <v>19.80516901555394</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.2964268507295</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1110,13 +1110,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>100.5827519824191</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>181.0919561226086</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1138,7 +1138,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1150,10 +1150,10 @@
         <v>411.5250233818693</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>280.2954527387568</v>
       </c>
       <c r="I8" t="n">
-        <v>64.83556544767976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>122.9354087744531</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T8" t="n">
         <v>206.5589059457607</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>200.411828233291</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I9" t="n">
-        <v>19.80516901555396</v>
+        <v>19.80516901555393</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1299,19 +1299,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.2964268507295</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.161060211447</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>80.95114552392783</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.1001486205444</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.4851693340911</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7052287134384</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>204.1918485887679</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1435,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784709</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1533,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>35.99871774582714</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>1.799772605716562</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1773,16 +1773,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>9.795251606876494</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -2010,19 +2010,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H19" t="n">
-        <v>36.39209596079195</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2250,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712588</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>220.8531394779004</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,16 +2481,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>83.06560892428213</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2560,7 +2560,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2718,19 +2718,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>170.9457618790573</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2955,19 +2955,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>160.6789846282036</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3006,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>105.9742079424032</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3249,13 +3249,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>2.607010073152018</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>20.3842717819797</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3480,13 +3480,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3571,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428297</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3720,10 +3720,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>139.5271979141359</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881302</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3906,16 +3906,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833809</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>126.441804108316</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4140,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>42.5313457611372</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4152,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1813.253594101052</v>
+        <v>1518.579052670053</v>
       </c>
       <c r="C2" t="n">
-        <v>1444.29107716064</v>
+        <v>1518.579052670053</v>
       </c>
       <c r="D2" t="n">
-        <v>1086.02537855389</v>
+        <v>1518.579052670053</v>
       </c>
       <c r="E2" t="n">
-        <v>700.2371259556458</v>
+        <v>1132.790800071809</v>
       </c>
       <c r="F2" t="n">
-        <v>471.118372194948</v>
+        <v>721.8048952822014</v>
       </c>
       <c r="G2" t="n">
-        <v>458.7065149272266</v>
+        <v>305.352633974076</v>
       </c>
       <c r="H2" t="n">
-        <v>146.9919235640839</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I2" t="n">
         <v>51.79985532281972</v>
@@ -4336,46 +4336,46 @@
         <v>455.1003844723717</v>
       </c>
       <c r="L2" t="n">
-        <v>692.7231656905637</v>
+        <v>708.1191375964742</v>
       </c>
       <c r="M2" t="n">
-        <v>988.7937322481667</v>
+        <v>1349.142347216368</v>
       </c>
       <c r="N2" t="n">
-        <v>1483.55219637312</v>
+        <v>1654.617453451953</v>
       </c>
       <c r="O2" t="n">
-        <v>1758.668415689754</v>
+        <v>1929.733672768588</v>
       </c>
       <c r="P2" t="n">
-        <v>2277.553464068625</v>
+        <v>2448.618721147459</v>
       </c>
       <c r="Q2" t="n">
-        <v>2589.992766140986</v>
+        <v>2550.866182466514</v>
       </c>
       <c r="R2" t="n">
         <v>2589.992766140986</v>
       </c>
       <c r="S2" t="n">
-        <v>2589.992766140986</v>
+        <v>2448.259651016315</v>
       </c>
       <c r="T2" t="n">
-        <v>2589.992766140986</v>
+        <v>2236.241780077746</v>
       </c>
       <c r="U2" t="n">
-        <v>2589.992766140986</v>
+        <v>2236.241780077746</v>
       </c>
       <c r="V2" t="n">
-        <v>2589.992766140986</v>
+        <v>1905.178892734175</v>
       </c>
       <c r="W2" t="n">
-        <v>2589.992766140986</v>
+        <v>1905.178892734175</v>
       </c>
       <c r="X2" t="n">
-        <v>2589.992766140986</v>
+        <v>1905.178892734175</v>
       </c>
       <c r="Y2" t="n">
-        <v>2199.853434165174</v>
+        <v>1905.178892734175</v>
       </c>
     </row>
     <row r="3">
@@ -4409,25 +4409,25 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J3" t="n">
-        <v>77.11538214995069</v>
+        <v>201.9455071369554</v>
       </c>
       <c r="K3" t="n">
-        <v>198.5384744202298</v>
+        <v>323.3685994072345</v>
       </c>
       <c r="L3" t="n">
-        <v>408.1293476730608</v>
+        <v>900.09141451049</v>
       </c>
       <c r="M3" t="n">
-        <v>1049.152557292955</v>
+        <v>1230.34662179833</v>
       </c>
       <c r="N3" t="n">
-        <v>1408.378866136616</v>
+        <v>1515.680492231663</v>
       </c>
       <c r="O3" t="n">
-        <v>2037.107513972037</v>
+        <v>2144.409140067085</v>
       </c>
       <c r="P3" t="n">
-        <v>2524.714615879285</v>
+        <v>2316.738101020794</v>
       </c>
       <c r="Q3" t="n">
         <v>2589.992766140986</v>
@@ -4527,13 +4527,13 @@
         <v>1311.202309361123</v>
       </c>
       <c r="W4" t="n">
-        <v>1311.202309361123</v>
+        <v>1282.759621191789</v>
       </c>
       <c r="X4" t="n">
-        <v>1236.418535124012</v>
+        <v>1054.770070293772</v>
       </c>
       <c r="Y4" t="n">
-        <v>1015.625955980482</v>
+        <v>833.9774911502419</v>
       </c>
     </row>
     <row r="5">
@@ -4543,46 +4543,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1613.451665985993</v>
+        <v>860.2154504701355</v>
       </c>
       <c r="C5" t="n">
-        <v>1244.489149045581</v>
+        <v>860.2154504701355</v>
       </c>
       <c r="D5" t="n">
-        <v>1244.489149045581</v>
+        <v>860.2154504701355</v>
       </c>
       <c r="E5" t="n">
-        <v>858.7008964473371</v>
+        <v>474.4271978718913</v>
       </c>
       <c r="F5" t="n">
-        <v>447.7149916577295</v>
+        <v>63.44129308228371</v>
       </c>
       <c r="G5" t="n">
-        <v>421.1148580461929</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H5" t="n">
-        <v>117.2903254719911</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I5" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J5" t="n">
-        <v>189.9868871104781</v>
+        <v>189.986887110478</v>
       </c>
       <c r="K5" t="n">
-        <v>447.8319447135512</v>
+        <v>447.8319447135518</v>
       </c>
       <c r="L5" t="n">
-        <v>804.6133007477385</v>
+        <v>804.6133007477388</v>
       </c>
       <c r="M5" t="n">
-        <v>1233.270741187502</v>
+        <v>1233.270741187503</v>
       </c>
       <c r="N5" t="n">
         <v>1673.478115539971</v>
       </c>
       <c r="O5" t="n">
-        <v>2075.818195082061</v>
+        <v>2075.818195082062</v>
       </c>
       <c r="P5" t="n">
         <v>2384.705143645557</v>
@@ -4597,22 +4597,22 @@
         <v>2465.81558556073</v>
       </c>
       <c r="T5" t="n">
-        <v>2257.170226019558</v>
+        <v>2465.81558556073</v>
       </c>
       <c r="U5" t="n">
-        <v>2003.590997961805</v>
+        <v>2307.652083320712</v>
       </c>
       <c r="V5" t="n">
-        <v>2003.590997961805</v>
+        <v>1976.589195977141</v>
       </c>
       <c r="W5" t="n">
-        <v>2003.590997961805</v>
+        <v>1623.820540707027</v>
       </c>
       <c r="X5" t="n">
-        <v>2003.590997961805</v>
+        <v>1250.354782445947</v>
       </c>
       <c r="Y5" t="n">
-        <v>1613.451665985993</v>
+        <v>860.2154504701355</v>
       </c>
     </row>
     <row r="6">
@@ -4631,40 +4631,40 @@
         <v>607.9171255411325</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6796705356769</v>
+        <v>448.679670535677</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1451125625619</v>
+        <v>302.145112562562</v>
       </c>
       <c r="G6" t="n">
         <v>165.4559591202886</v>
       </c>
       <c r="H6" t="n">
-        <v>71.80507655065196</v>
+        <v>71.80507655065199</v>
       </c>
       <c r="I6" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J6" t="n">
-        <v>240.1153828096209</v>
+        <v>115.2852578226161</v>
       </c>
       <c r="K6" t="n">
-        <v>598.8031573431329</v>
+        <v>563.7673318682815</v>
       </c>
       <c r="L6" t="n">
-        <v>896.1151064594476</v>
+        <v>1104.091621317939</v>
       </c>
       <c r="M6" t="n">
-        <v>1262.420995951773</v>
+        <v>1470.397510810264</v>
       </c>
       <c r="N6" t="n">
-        <v>1652.830557277516</v>
+        <v>1860.807072136007</v>
       </c>
       <c r="O6" t="n">
-        <v>1987.759237993047</v>
+        <v>2195.735752851538</v>
       </c>
       <c r="P6" t="n">
-        <v>2237.235965858066</v>
+        <v>2445.212480716556</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.061870084021</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>833.6319074814764</v>
+        <v>370.8526776630624</v>
       </c>
       <c r="C7" t="n">
-        <v>664.6957245535696</v>
+        <v>201.9164947351555</v>
       </c>
       <c r="D7" t="n">
-        <v>514.5790851412338</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="E7" t="n">
-        <v>366.6659915588407</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="F7" t="n">
-        <v>219.7760440609304</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="G7" t="n">
         <v>51.79985532281972</v>
@@ -4725,25 +4725,25 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J7" t="n">
-        <v>77.98108068080552</v>
+        <v>77.98108068080549</v>
       </c>
       <c r="K7" t="n">
-        <v>250.8417132121973</v>
+        <v>250.8417132121972</v>
       </c>
       <c r="L7" t="n">
-        <v>527.5702436225445</v>
+        <v>527.5702436225444</v>
       </c>
       <c r="M7" t="n">
-        <v>829.7308018317424</v>
+        <v>829.7308018317422</v>
       </c>
       <c r="N7" t="n">
-        <v>1130.141273750634</v>
+        <v>1130.141273750633</v>
       </c>
       <c r="O7" t="n">
         <v>1391.602671897099</v>
       </c>
       <c r="P7" t="n">
-        <v>1591.807384634811</v>
+        <v>1591.80738463481</v>
       </c>
       <c r="Q7" t="n">
         <v>1646.983670153878</v>
@@ -4758,19 +4758,19 @@
         <v>1646.983670153878</v>
       </c>
       <c r="U7" t="n">
-        <v>1646.983670153878</v>
+        <v>1545.384930777697</v>
       </c>
       <c r="V7" t="n">
-        <v>1646.983670153878</v>
+        <v>1290.70044257181</v>
       </c>
       <c r="W7" t="n">
-        <v>1464.062502353264</v>
+        <v>1001.28327253485</v>
       </c>
       <c r="X7" t="n">
-        <v>1236.072951455246</v>
+        <v>773.2937216368322</v>
       </c>
       <c r="Y7" t="n">
-        <v>1015.280372311716</v>
+        <v>552.501142493302</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1294.668437559719</v>
+        <v>1870.570385955436</v>
       </c>
       <c r="C8" t="n">
-        <v>925.7059206193069</v>
+        <v>1501.607869015024</v>
       </c>
       <c r="D8" t="n">
-        <v>925.7059206193069</v>
+        <v>1143.342170408274</v>
       </c>
       <c r="E8" t="n">
-        <v>539.9176680210627</v>
+        <v>757.5539178100294</v>
       </c>
       <c r="F8" t="n">
-        <v>532.9721672718592</v>
+        <v>750.6084170608259</v>
       </c>
       <c r="G8" t="n">
-        <v>117.2903254719912</v>
+        <v>334.9265752609579</v>
       </c>
       <c r="H8" t="n">
-        <v>117.2903254719912</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I8" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J8" t="n">
-        <v>189.9868871104779</v>
+        <v>189.9868871104781</v>
       </c>
       <c r="K8" t="n">
-        <v>447.8319447135518</v>
+        <v>447.8319447135511</v>
       </c>
       <c r="L8" t="n">
-        <v>804.6133007477397</v>
+        <v>804.6133007477383</v>
       </c>
       <c r="M8" t="n">
-        <v>1233.270741187503</v>
+        <v>1233.270741187502</v>
       </c>
       <c r="N8" t="n">
-        <v>1673.478115539972</v>
+        <v>1673.478115539971</v>
       </c>
       <c r="O8" t="n">
         <v>2075.818195082061</v>
@@ -4846,10 +4846,10 @@
         <v>2257.170226019558</v>
       </c>
       <c r="X8" t="n">
-        <v>1883.704467758478</v>
+        <v>2257.170226019558</v>
       </c>
       <c r="Y8" t="n">
-        <v>1681.26827762384</v>
+        <v>2257.170226019558</v>
       </c>
     </row>
     <row r="9">
@@ -4868,31 +4868,31 @@
         <v>607.9171255411325</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679670535677</v>
+        <v>448.6796705356769</v>
       </c>
       <c r="F9" t="n">
-        <v>302.145112562562</v>
+        <v>302.1451125625619</v>
       </c>
       <c r="G9" t="n">
         <v>165.4559591202886</v>
       </c>
       <c r="H9" t="n">
-        <v>71.80507655065199</v>
+        <v>71.80507655065196</v>
       </c>
       <c r="I9" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J9" t="n">
-        <v>240.1153828096208</v>
+        <v>240.1153828096209</v>
       </c>
       <c r="K9" t="n">
-        <v>598.803157343134</v>
+        <v>598.8031573431329</v>
       </c>
       <c r="L9" t="n">
-        <v>896.1151064594485</v>
+        <v>896.1151064594476</v>
       </c>
       <c r="M9" t="n">
-        <v>1262.420995951774</v>
+        <v>1262.420995951773</v>
       </c>
       <c r="N9" t="n">
         <v>1652.830557277516</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>516.7826309711764</v>
+        <v>727.1359052451305</v>
       </c>
       <c r="C10" t="n">
-        <v>516.7826309711764</v>
+        <v>727.1359052451305</v>
       </c>
       <c r="D10" t="n">
-        <v>366.6659915588407</v>
+        <v>577.0192658327948</v>
       </c>
       <c r="E10" t="n">
-        <v>366.6659915588407</v>
+        <v>429.1061722504016</v>
       </c>
       <c r="F10" t="n">
-        <v>219.7760440609304</v>
+        <v>282.2162247524913</v>
       </c>
       <c r="G10" t="n">
-        <v>51.79985532281972</v>
+        <v>282.2162247524913</v>
       </c>
       <c r="H10" t="n">
-        <v>51.79985532281972</v>
+        <v>133.5686891853731</v>
       </c>
       <c r="I10" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J10" t="n">
-        <v>77.98108068080546</v>
+        <v>77.98108068080552</v>
       </c>
       <c r="K10" t="n">
-        <v>250.8417132121971</v>
+        <v>250.8417132121973</v>
       </c>
       <c r="L10" t="n">
-        <v>527.5702436225441</v>
+        <v>527.5702436225445</v>
       </c>
       <c r="M10" t="n">
-        <v>829.7308018317418</v>
+        <v>829.7308018317424</v>
       </c>
       <c r="N10" t="n">
-        <v>1130.141273750633</v>
+        <v>1130.141273750634</v>
       </c>
       <c r="O10" t="n">
         <v>1391.602671897099</v>
       </c>
       <c r="P10" t="n">
-        <v>1591.80738463481</v>
+        <v>1591.807384634811</v>
       </c>
       <c r="Q10" t="n">
-        <v>1646.983670153877</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="R10" t="n">
-        <v>1544.862307910903</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="S10" t="n">
-        <v>1348.412641916872</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="T10" t="n">
-        <v>1125.478067458853</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="U10" t="n">
-        <v>1125.478067458853</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="V10" t="n">
-        <v>919.2236749449463</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="W10" t="n">
-        <v>919.2236749449463</v>
+        <v>1357.566500116918</v>
       </c>
       <c r="X10" t="n">
-        <v>919.2236749449463</v>
+        <v>1129.5769492189</v>
       </c>
       <c r="Y10" t="n">
-        <v>698.4310958014162</v>
+        <v>908.7843700753702</v>
       </c>
     </row>
     <row r="11">
@@ -5020,34 +5020,34 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
         <v>2206.55866301478</v>
@@ -5059,31 +5059,31 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>988.1395539230172</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>819.2033709951103</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D13" t="n">
-        <v>669.0867315827745</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E13" t="n">
-        <v>521.1736380003814</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1907.987318831765</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1618.570148794804</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1390.580597896787</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>1169.788018753257</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5272,7 +5272,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192616</v>
@@ -5290,16 +5290,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1963.765362972544</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>724.7519863413023</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D16" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L16" t="n">
         <v>826.1405381797747</v>
@@ -5460,28 +5460,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>906.400451171542</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C18" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D18" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>2715.159942084666</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>3210.485548300425</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>3807.864035926977</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>3807.864035926977</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>4033.948342528643</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S18" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T18" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U18" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V18" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W18" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X18" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y18" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="19">
@@ -5649,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>696.7084350851671</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>527.7722521572603</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>527.7722521572603</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>379.8591585748671</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F19" t="n">
-        <v>379.8591585748671</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G19" t="n">
-        <v>212.6630592897471</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L19" t="n">
         <v>826.1405381797747</v>
@@ -5700,25 +5700,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5728,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406468</v>
@@ -5746,58 +5746,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5825,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>245.2306927803938</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3044.50749608713</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C22" t="n">
-        <v>2875.571313159223</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D22" t="n">
-        <v>2875.571313159223</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E22" t="n">
-        <v>2875.571313159223</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F22" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.9326143059</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T22" t="n">
-        <v>4221.331149328841</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U22" t="n">
-        <v>3998.247170058235</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V22" t="n">
-        <v>3743.562681852348</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W22" t="n">
-        <v>3454.145511815387</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X22" t="n">
-        <v>3226.15596091737</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y22" t="n">
-        <v>3226.15596091737</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="23">
@@ -5968,31 +5968,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192508</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6001,37 +6001,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,28 +6065,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E25" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
         <v>93.81666304797187</v>
@@ -6147,52 +6147,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6223,7 +6223,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6235,13 +6235,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6302,28 +6302,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>560.7825789706076</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>391.8463960427007</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>241.729756630365</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T28" t="n">
-        <v>2024.390058741045</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>1735.314832085242</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1480.630343879355</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1191.213173842395</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>963.2236229443774</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>742.4310438008473</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6451,34 +6451,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6554,10 +6554,10 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1671.859558793925</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2223.769289033212</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>869.9745311434712</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>701.0383482155643</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>550.9217088032285</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>403.0086152208354</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>256.118667722925</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1789.822296052219</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1500.405126015258</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1272.415575117241</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1051.622995973711</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6691,34 +6691,34 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
         <v>4562.265728852256</v>
@@ -6776,28 +6776,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1433.70136564882</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1205.711814750802</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1205.711814750802</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6925,22 +6925,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7013,28 +7013,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>869.9745311434712</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C37" t="n">
-        <v>701.0383482155643</v>
+        <v>634.334587849125</v>
       </c>
       <c r="D37" t="n">
-        <v>550.9217088032285</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E37" t="n">
-        <v>403.0086152208354</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F37" t="n">
-        <v>256.118667722925</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1789.822296052219</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1500.405126015258</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X37" t="n">
-        <v>1272.415575117241</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y37" t="n">
-        <v>1051.622995973711</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168629</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362692</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111709</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="39">
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,25 +7247,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273913</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.230692780394</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516147</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400726</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121657</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121657</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121657</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121657</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270456</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038346</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1547.449290305074</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1547.449290305074</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X40" t="n">
-        <v>1319.459739407057</v>
+        <v>916.2946447138424</v>
       </c>
       <c r="Y40" t="n">
-        <v>1098.667160263527</v>
+        <v>695.5020655703123</v>
       </c>
     </row>
     <row r="41">
@@ -7390,7 +7390,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7399,61 +7399,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192601</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,34 +7484,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="M42" t="n">
-        <v>1072.713683962606</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N42" t="n">
-        <v>1700.311647517213</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O42" t="n">
-        <v>2252.2213777565</v>
+        <v>1870.702844468417</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2294.325993963485</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>847.644273983533</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>697.5276345711973</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888042</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1546.740494934014</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7657,13 +7657,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,19 +7724,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
         <v>2001.151557821488</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>696.7084350851671</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>527.7722521572603</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7833,25 +7833,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -7984,13 +7984,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>15.55148677364684</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>348.4370131942333</v>
       </c>
       <c r="N2" t="n">
-        <v>191.1953109993611</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -7999,10 +7999,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>26.19461818159724</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,28 +8057,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>380.8926041660669</v>
+        <v>66.98553110338656</v>
       </c>
       <c r="N3" t="n">
-        <v>74.6388266770993</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,13 +8294,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>173.7639243740396</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>245.4670104377199</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8315,10 +8315,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.18437503906576</v>
+        <v>20.1843750390658</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>173.763924374041</v>
+        <v>173.7639243740396</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.18437503906583</v>
+        <v>20.18437503906577</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>3.183231456205249e-12</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -23421,19 +23421,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>109.4223302771041</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23469,13 +23469,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23661,16 +23661,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856552</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>208.7894017452183</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23898,19 +23898,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H19" t="n">
-        <v>103.9026168854319</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24138,7 +24138,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>72.11969353038577</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>65.33133491134373</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>65.54986409393022</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459309</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24606,19 +24606,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>46.45968844823099</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24843,19 +24843,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>4.845153664065236</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>73.85777223953414</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25137,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>146.0084629450603</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>145.1398665102892</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25368,13 +25368,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194089</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25608,10 +25608,10 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>112.6104454096921</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25794,19 +25794,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>65.54986409393075</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,10 +25836,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>99.26785128072119</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>106.0841272570752</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>729054.956522705</v>
+        <v>729054.9565227051</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>729054.9565227051</v>
+        <v>729054.956522705</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>711742.7704138665</v>
+        <v>711742.7704138664</v>
       </c>
     </row>
     <row r="6">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>711742.7704138665</v>
+        <v>711742.7704138664</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>711742.7704138665</v>
+        <v>711742.7704138664</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>711742.7704138665</v>
+        <v>711742.7704138664</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312484</v>
+        <v>718411.5486312482</v>
       </c>
       <c r="C2" t="n">
-        <v>718411.5486312479</v>
+        <v>718411.5486312482</v>
       </c>
       <c r="D2" t="n">
         <v>718411.5486312481</v>
       </c>
       <c r="E2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287558</v>
       </c>
       <c r="F2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287559</v>
       </c>
       <c r="G2" t="n">
+        <v>706253.2747287557</v>
+      </c>
+      <c r="H2" t="n">
+        <v>706253.2747287552</v>
+      </c>
+      <c r="I2" t="n">
         <v>706253.2747287551</v>
       </c>
-      <c r="H2" t="n">
-        <v>706253.2747287554</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
+        <v>706253.2747287558</v>
+      </c>
+      <c r="K2" t="n">
+        <v>706253.2747287551</v>
+      </c>
+      <c r="L2" t="n">
+        <v>706253.2747287556</v>
+      </c>
+      <c r="M2" t="n">
+        <v>706253.2747287557</v>
+      </c>
+      <c r="N2" t="n">
+        <v>706253.2747287556</v>
+      </c>
+      <c r="O2" t="n">
         <v>706253.2747287552</v>
       </c>
-      <c r="J2" t="n">
-        <v>706253.2747287552</v>
-      </c>
-      <c r="K2" t="n">
-        <v>706253.2747287556</v>
-      </c>
-      <c r="L2" t="n">
-        <v>706253.2747287554</v>
-      </c>
-      <c r="M2" t="n">
-        <v>706253.2747287556</v>
-      </c>
-      <c r="N2" t="n">
-        <v>706253.2747287557</v>
-      </c>
-      <c r="O2" t="n">
-        <v>706253.2747287554</v>
-      </c>
       <c r="P2" t="n">
-        <v>706253.2747287556</v>
+        <v>706253.2747287558</v>
       </c>
     </row>
     <row r="3">
@@ -26368,16 +26368,16 @@
         <v>939682.9358753986</v>
       </c>
       <c r="C3" t="n">
-        <v>172764.3597898926</v>
+        <v>172764.3597898923</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
         <v>500888.8677457509</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,22 +26389,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>169414.0168260479</v>
+        <v>169414.016826048</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.62584001373034e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>130884.4569042351</v>
+        <v>130884.4569042353</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>4.708776941697579e-10</v>
       </c>
       <c r="O3" t="n">
-        <v>1.540129233035259e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26420,46 +26420,46 @@
         <v>159785.8388151599</v>
       </c>
       <c r="C4" t="n">
-        <v>129066.7547252479</v>
+        <v>129066.754725248</v>
       </c>
       <c r="D4" t="n">
         <v>129066.754725248</v>
       </c>
       <c r="E4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531694971</v>
       </c>
       <c r="F4" t="n">
+        <v>6287.480531695092</v>
+      </c>
+      <c r="G4" t="n">
+        <v>6287.480531695117</v>
+      </c>
+      <c r="H4" t="n">
         <v>6287.480531695052</v>
       </c>
-      <c r="G4" t="n">
-        <v>6287.480531695024</v>
-      </c>
-      <c r="H4" t="n">
-        <v>6287.480531695051</v>
-      </c>
       <c r="I4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="J4" t="n">
         <v>6287.480531695051</v>
       </c>
       <c r="K4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="L4" t="n">
         <v>6287.480531695052</v>
       </c>
       <c r="M4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="N4" t="n">
         <v>6287.480531695052</v>
       </c>
       <c r="O4" t="n">
+        <v>6287.480531695039</v>
+      </c>
+      <c r="P4" t="n">
         <v>6287.480531695051</v>
-      </c>
-      <c r="P4" t="n">
-        <v>6287.480531695052</v>
       </c>
     </row>
     <row r="5">
@@ -26475,7 +26475,7 @@
         <v>93481.0893615096</v>
       </c>
       <c r="D5" t="n">
-        <v>93481.08936150958</v>
+        <v>93481.0893615096</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26505,7 +26505,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="N5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="O5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-470402.3009563009</v>
+        <v>-470402.3009563012</v>
       </c>
       <c r="C6" t="n">
-        <v>323099.3447545979</v>
+        <v>323099.3447545984</v>
       </c>
       <c r="D6" t="n">
-        <v>495863.704544491</v>
+        <v>495863.7045444903</v>
       </c>
       <c r="E6" t="n">
-        <v>97954.39662740236</v>
+        <v>97607.01737304583</v>
       </c>
       <c r="F6" t="n">
-        <v>598843.2643731531</v>
+        <v>598495.8851187971</v>
       </c>
       <c r="G6" t="n">
-        <v>598843.264373153</v>
+        <v>598495.8851187966</v>
       </c>
       <c r="H6" t="n">
-        <v>598843.2643731532</v>
+        <v>598495.8851187963</v>
       </c>
       <c r="I6" t="n">
-        <v>598843.2643731531</v>
+        <v>598495.885118796</v>
       </c>
       <c r="J6" t="n">
-        <v>429429.2475471052</v>
+        <v>429081.8682927486</v>
       </c>
       <c r="K6" t="n">
-        <v>598843.2643731534</v>
+        <v>598495.885118796</v>
       </c>
       <c r="L6" t="n">
-        <v>598843.2643731531</v>
+        <v>598495.8851187965</v>
       </c>
       <c r="M6" t="n">
-        <v>467958.8074689183</v>
+        <v>467611.4282145613</v>
       </c>
       <c r="N6" t="n">
-        <v>598843.2643731536</v>
+        <v>598495.8851187959</v>
       </c>
       <c r="O6" t="n">
-        <v>598843.2643731531</v>
+        <v>598495.8851187965</v>
       </c>
       <c r="P6" t="n">
-        <v>598843.2643731536</v>
+        <v>598495.8851187968</v>
       </c>
     </row>
   </sheetData>
@@ -26740,10 +26740,10 @@
         <v>749.9809564976108</v>
       </c>
       <c r="C3" t="n">
-        <v>939.7063906498448</v>
+        <v>939.7063906498445</v>
       </c>
       <c r="D3" t="n">
-        <v>939.7063906498443</v>
+        <v>939.7063906498447</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26798,7 +26798,7 @@
         <v>647.4981915352464</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26825,10 +26825,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26962,16 +26962,16 @@
         <v>749.9809564976108</v>
       </c>
       <c r="C3" t="n">
-        <v>189.725434152234</v>
+        <v>189.7254341522337</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>428.2691096918295</v>
+        <v>428.2691096918293</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26989,16 +26989,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="O3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>525.210096564402</v>
+        <v>525.2100965644024</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.210096564402</v>
+        <v>525.2100965644024</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.210096564402</v>
+        <v>525.2100965644024</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,25 +27381,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>180.0484795186207</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>57.58019458476755</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>94.24014755885155</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>140.315783973424</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>209.8976922291835</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.1044530022292</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27599,10 +27599,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>258.3647370489509</v>
       </c>
       <c r="X4" t="n">
-        <v>151.6737188942971</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27618,7 +27618,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>385.1908911064481</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>64.83556544767973</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,19 +27669,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>94.46156855955718</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27782,13 +27782,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H7" t="n">
         <v>147.161060211447</v>
@@ -27830,13 +27830,13 @@
         <v>220.7052287134384</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2265992197056</v>
+        <v>185.6438472372865</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>105.4310422139824</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27858,7 +27858,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27870,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>300.7862872484598</v>
+        <v>20.49083450970301</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>64.8355654476797</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27918,10 +27918,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>185.8261104227626</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28019,19 +28019,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H10" t="n">
-        <v>147.161060211447</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.4906595130011</v>
+        <v>23.53951398907328</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U10" t="n">
         <v>286.2265992197056</v>
       </c>
       <c r="V10" t="n">
-        <v>47.94579473506013</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28377,7 +28377,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>8.952838470577262e-13</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28578,7 +28578,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -30516,7 +30516,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>-1.56319401867222e-12</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.777714133265705</v>
+        <v>3.777714133265703</v>
       </c>
       <c r="H5" t="n">
-        <v>38.68851486730741</v>
+        <v>38.6885148673074</v>
       </c>
       <c r="I5" t="n">
         <v>145.6403241227262</v>
       </c>
       <c r="J5" t="n">
-        <v>320.6287649182604</v>
+        <v>320.6287649182603</v>
       </c>
       <c r="K5" t="n">
-        <v>480.5394041793978</v>
+        <v>480.5394041793976</v>
       </c>
       <c r="L5" t="n">
-        <v>596.1516230853282</v>
+        <v>596.1516230853281</v>
       </c>
       <c r="M5" t="n">
-        <v>663.3335468027922</v>
+        <v>663.3335468027919</v>
       </c>
       <c r="N5" t="n">
-        <v>674.0669770839335</v>
+        <v>674.0669770839332</v>
       </c>
       <c r="O5" t="n">
-        <v>636.5023321712725</v>
+        <v>636.5023321712723</v>
       </c>
       <c r="P5" t="n">
-        <v>543.2400145062753</v>
+        <v>543.2400145062752</v>
       </c>
       <c r="Q5" t="n">
-        <v>407.9506271086972</v>
+        <v>407.950627108697</v>
       </c>
       <c r="R5" t="n">
         <v>237.301835423752</v>
       </c>
       <c r="S5" t="n">
-        <v>86.08466081179233</v>
+        <v>86.0846608117923</v>
       </c>
       <c r="T5" t="n">
-        <v>16.53694361837063</v>
+        <v>16.53694361837062</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3022171306612563</v>
+        <v>0.3022171306612562</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.021255255360044</v>
+        <v>2.021255255360043</v>
       </c>
       <c r="H6" t="n">
         <v>19.52107049255621</v>
       </c>
       <c r="I6" t="n">
-        <v>69.59146383586116</v>
+        <v>69.59146383586113</v>
       </c>
       <c r="J6" t="n">
-        <v>190.9642958583803</v>
+        <v>190.9642958583802</v>
       </c>
       <c r="K6" t="n">
-        <v>326.3883979675032</v>
+        <v>326.3883979675031</v>
       </c>
       <c r="L6" t="n">
-        <v>438.8694798973639</v>
+        <v>438.8694798973638</v>
       </c>
       <c r="M6" t="n">
-        <v>512.1399829041653</v>
+        <v>512.1399829041652</v>
       </c>
       <c r="N6" t="n">
-        <v>525.694804331558</v>
+        <v>525.6948043315579</v>
       </c>
       <c r="O6" t="n">
-        <v>480.9080431470013</v>
+        <v>480.9080431470011</v>
       </c>
       <c r="P6" t="n">
-        <v>385.9711022274806</v>
+        <v>385.9711022274805</v>
       </c>
       <c r="Q6" t="n">
-        <v>258.0114603157838</v>
+        <v>258.0114603157837</v>
       </c>
       <c r="R6" t="n">
         <v>125.4951289248982</v>
       </c>
       <c r="S6" t="n">
-        <v>37.54392985284991</v>
+        <v>37.54392985284989</v>
       </c>
       <c r="T6" t="n">
-        <v>8.147077103841577</v>
+        <v>8.147077103841573</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1329773194315819</v>
+        <v>0.1329773194315818</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,43 +31442,43 @@
         <v>15.0661122959926</v>
       </c>
       <c r="I7" t="n">
-        <v>50.95981541425717</v>
+        <v>50.95981541425715</v>
       </c>
       <c r="J7" t="n">
         <v>119.8048622964564</v>
       </c>
       <c r="K7" t="n">
-        <v>196.8761913525412</v>
+        <v>196.8761913525411</v>
       </c>
       <c r="L7" t="n">
-        <v>251.9337428309437</v>
+        <v>251.9337428309436</v>
       </c>
       <c r="M7" t="n">
-        <v>265.6288080979552</v>
+        <v>265.6288080979551</v>
       </c>
       <c r="N7" t="n">
-        <v>259.3127487509647</v>
+        <v>259.3127487509646</v>
       </c>
       <c r="O7" t="n">
-        <v>239.5172944561277</v>
+        <v>239.5172944561276</v>
       </c>
       <c r="P7" t="n">
-        <v>204.9484232984513</v>
+        <v>204.9484232984512</v>
       </c>
       <c r="Q7" t="n">
-        <v>141.8956649881266</v>
+        <v>141.8956649881265</v>
       </c>
       <c r="R7" t="n">
-        <v>76.1932427566251</v>
+        <v>76.19324275662507</v>
       </c>
       <c r="S7" t="n">
-        <v>29.53142870288118</v>
+        <v>29.53142870288116</v>
       </c>
       <c r="T7" t="n">
-        <v>7.240360714843064</v>
+        <v>7.240360714843061</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09243013678523074</v>
+        <v>0.0924301367852307</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.777714133265702</v>
+        <v>3.777714133265704</v>
       </c>
       <c r="H8" t="n">
-        <v>38.68851486730739</v>
+        <v>38.6885148673074</v>
       </c>
       <c r="I8" t="n">
         <v>145.6403241227262</v>
       </c>
       <c r="J8" t="n">
-        <v>320.6287649182602</v>
+        <v>320.6287649182604</v>
       </c>
       <c r="K8" t="n">
-        <v>480.5394041793975</v>
+        <v>480.5394041793978</v>
       </c>
       <c r="L8" t="n">
-        <v>596.1516230853279</v>
+        <v>596.1516230853282</v>
       </c>
       <c r="M8" t="n">
-        <v>663.3335468027918</v>
+        <v>663.3335468027922</v>
       </c>
       <c r="N8" t="n">
-        <v>674.066977083933</v>
+        <v>674.0669770839334</v>
       </c>
       <c r="O8" t="n">
-        <v>636.5023321712722</v>
+        <v>636.5023321712724</v>
       </c>
       <c r="P8" t="n">
-        <v>543.2400145062751</v>
+        <v>543.2400145062753</v>
       </c>
       <c r="Q8" t="n">
-        <v>407.9506271086969</v>
+        <v>407.9506271086971</v>
       </c>
       <c r="R8" t="n">
-        <v>237.3018354237519</v>
+        <v>237.301835423752</v>
       </c>
       <c r="S8" t="n">
-        <v>86.08466081179229</v>
+        <v>86.08466081179233</v>
       </c>
       <c r="T8" t="n">
-        <v>16.53694361837062</v>
+        <v>16.53694361837063</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3022171306612562</v>
+        <v>0.3022171306612563</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.021255255360042</v>
+        <v>2.021255255360043</v>
       </c>
       <c r="H9" t="n">
-        <v>19.5210704925562</v>
+        <v>19.52107049255621</v>
       </c>
       <c r="I9" t="n">
-        <v>69.59146383586112</v>
+        <v>69.59146383586115</v>
       </c>
       <c r="J9" t="n">
-        <v>190.9642958583802</v>
+        <v>190.9642958583803</v>
       </c>
       <c r="K9" t="n">
-        <v>326.388397967503</v>
+        <v>326.3883979675032</v>
       </c>
       <c r="L9" t="n">
-        <v>438.8694798973636</v>
+        <v>438.8694798973639</v>
       </c>
       <c r="M9" t="n">
-        <v>512.1399829041651</v>
+        <v>512.1399829041653</v>
       </c>
       <c r="N9" t="n">
-        <v>525.6948043315577</v>
+        <v>525.694804331558</v>
       </c>
       <c r="O9" t="n">
-        <v>480.908043147001</v>
+        <v>480.9080431470012</v>
       </c>
       <c r="P9" t="n">
-        <v>385.9711022274804</v>
+        <v>385.9711022274806</v>
       </c>
       <c r="Q9" t="n">
-        <v>258.0114603157837</v>
+        <v>258.0114603157838</v>
       </c>
       <c r="R9" t="n">
-        <v>125.4951289248981</v>
+        <v>125.4951289248982</v>
       </c>
       <c r="S9" t="n">
-        <v>37.54392985284989</v>
+        <v>37.54392985284991</v>
       </c>
       <c r="T9" t="n">
-        <v>8.147077103841571</v>
+        <v>8.147077103841575</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1329773194315818</v>
+        <v>0.1329773194315819</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.694552507729227</v>
+        <v>1.694552507729228</v>
       </c>
       <c r="H10" t="n">
-        <v>15.06611229599259</v>
+        <v>15.0661122959926</v>
       </c>
       <c r="I10" t="n">
-        <v>50.95981541425714</v>
+        <v>50.95981541425716</v>
       </c>
       <c r="J10" t="n">
-        <v>119.8048622964563</v>
+        <v>119.8048622964564</v>
       </c>
       <c r="K10" t="n">
-        <v>196.8761913525411</v>
+        <v>196.8761913525412</v>
       </c>
       <c r="L10" t="n">
-        <v>251.9337428309435</v>
+        <v>251.9337428309436</v>
       </c>
       <c r="M10" t="n">
-        <v>265.6288080979551</v>
+        <v>265.6288080979552</v>
       </c>
       <c r="N10" t="n">
-        <v>259.3127487509645</v>
+        <v>259.3127487509647</v>
       </c>
       <c r="O10" t="n">
-        <v>239.5172944561276</v>
+        <v>239.5172944561277</v>
       </c>
       <c r="P10" t="n">
-        <v>204.9484232984512</v>
+        <v>204.9484232984513</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.8956649881265</v>
+        <v>141.8956649881266</v>
       </c>
       <c r="R10" t="n">
-        <v>76.19324275662505</v>
+        <v>76.19324275662508</v>
       </c>
       <c r="S10" t="n">
-        <v>29.53142870288116</v>
+        <v>29.53142870288117</v>
       </c>
       <c r="T10" t="n">
-        <v>7.240360714843059</v>
+        <v>7.240360714843063</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09243013678523068</v>
+        <v>0.09243013678523072</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>245.8118639189582</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32074,13 +32074,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473073</v>
@@ -32089,13 +32089,13 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>171.7382405950817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32311,7 +32311,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32326,16 +32326,16 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O18" t="n">
-        <v>370.9642309107733</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,37 +32554,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>581.3243739860823</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>282.8216163968498</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33034,19 +33034,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>416.4300581532626</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33274,13 +33274,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>466.5925882502527</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>620.1193660647493</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33748,16 +33748,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O36" t="n">
-        <v>164.9290651940687</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,31 +33964,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.307619600775</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420756</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422588</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192539</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437246</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T40" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>437.853104691376</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>364.3208035245835</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34444,13 +34444,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34459,7 +34459,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34704,13 +34704,13 @@
         <v>163.429305116157</v>
       </c>
       <c r="L2" t="n">
-        <v>240.0230113315071</v>
+        <v>255.574498105154</v>
       </c>
       <c r="M2" t="n">
-        <v>299.0611783410131</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="N2" t="n">
-        <v>499.7560243686393</v>
+        <v>308.5607133692782</v>
       </c>
       <c r="O2" t="n">
         <v>277.8951710269035</v>
@@ -34719,10 +34719,10 @@
         <v>524.1263114938092</v>
       </c>
       <c r="Q2" t="n">
-        <v>315.5952546185461</v>
+        <v>103.2802639586414</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>39.52180169138521</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>25.57123921932421</v>
+        <v>151.662274559733</v>
       </c>
       <c r="K3" t="n">
         <v>122.649588151797</v>
       </c>
       <c r="L3" t="n">
-        <v>211.7079527806374</v>
+        <v>582.5482980840966</v>
       </c>
       <c r="M3" t="n">
-        <v>647.4981915352464</v>
+        <v>333.5911184725661</v>
       </c>
       <c r="N3" t="n">
-        <v>362.8548574178398</v>
+        <v>288.2160307407405</v>
       </c>
       <c r="O3" t="n">
         <v>635.0794422580011</v>
       </c>
       <c r="P3" t="n">
-        <v>492.5324261689369</v>
+        <v>174.0696575289998</v>
       </c>
       <c r="Q3" t="n">
-        <v>65.9375255168697</v>
+        <v>276.0148132527188</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>139.5828603915741</v>
+        <v>139.582860391574</v>
       </c>
       <c r="K5" t="n">
-        <v>260.4495531344173</v>
+        <v>260.4495531344171</v>
       </c>
       <c r="L5" t="n">
-        <v>360.385208115341</v>
+        <v>360.3852081153408</v>
       </c>
       <c r="M5" t="n">
-        <v>432.9873135755195</v>
+        <v>432.9873135755192</v>
       </c>
       <c r="N5" t="n">
-        <v>444.6539134873425</v>
+        <v>444.6539134873423</v>
       </c>
       <c r="O5" t="n">
-        <v>406.4041207495858</v>
+        <v>406.4041207495856</v>
       </c>
       <c r="P5" t="n">
-        <v>312.0070187510058</v>
+        <v>312.0070187510057</v>
       </c>
       <c r="Q5" t="n">
-        <v>185.6449372342477</v>
+        <v>185.6449372342475</v>
       </c>
       <c r="R5" t="n">
-        <v>21.71629760961991</v>
+        <v>21.71629760961983</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>190.2177045321224</v>
+        <v>64.12666919171352</v>
       </c>
       <c r="K6" t="n">
-        <v>362.3108833671837</v>
+        <v>453.0121960057227</v>
       </c>
       <c r="L6" t="n">
-        <v>300.3151001174897</v>
+        <v>545.7821105552094</v>
       </c>
       <c r="M6" t="n">
-        <v>370.005948982147</v>
+        <v>370.0059489821469</v>
       </c>
       <c r="N6" t="n">
-        <v>394.3530922482247</v>
+        <v>394.3530922482246</v>
       </c>
       <c r="O6" t="n">
-        <v>338.3117987025568</v>
+        <v>338.3117987025566</v>
       </c>
       <c r="P6" t="n">
-        <v>251.9966948131504</v>
+        <v>251.9966948131503</v>
       </c>
       <c r="Q6" t="n">
-        <v>328.1069739656114</v>
+        <v>118.0296862297622</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>26.44568217978365</v>
+        <v>26.4456821797836</v>
       </c>
       <c r="K7" t="n">
         <v>174.6066995266583</v>
       </c>
       <c r="L7" t="n">
-        <v>279.5237680912598</v>
+        <v>279.5237680912597</v>
       </c>
       <c r="M7" t="n">
-        <v>305.2126850597958</v>
+        <v>305.2126850597957</v>
       </c>
       <c r="N7" t="n">
-        <v>303.4449211301933</v>
+        <v>303.4449211301932</v>
       </c>
       <c r="O7" t="n">
-        <v>264.1024223701674</v>
+        <v>264.1024223701673</v>
       </c>
       <c r="P7" t="n">
-        <v>202.2269825633448</v>
+        <v>202.2269825633447</v>
       </c>
       <c r="Q7" t="n">
-        <v>55.73362173643217</v>
+        <v>55.73362173643211</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>139.5828603915739</v>
+        <v>139.5828603915741</v>
       </c>
       <c r="K8" t="n">
-        <v>260.449553134417</v>
+        <v>260.4495531344172</v>
       </c>
       <c r="L8" t="n">
-        <v>360.3852081153406</v>
+        <v>360.385208115341</v>
       </c>
       <c r="M8" t="n">
-        <v>432.9873135755191</v>
+        <v>432.9873135755195</v>
       </c>
       <c r="N8" t="n">
-        <v>444.6539134873421</v>
+        <v>444.6539134873424</v>
       </c>
       <c r="O8" t="n">
-        <v>406.4041207495854</v>
+        <v>406.4041207495857</v>
       </c>
       <c r="P8" t="n">
-        <v>312.0070187510055</v>
+        <v>312.0070187510058</v>
       </c>
       <c r="Q8" t="n">
-        <v>185.6449372342475</v>
+        <v>185.6449372342476</v>
       </c>
       <c r="R8" t="n">
-        <v>21.71629760961977</v>
+        <v>21.71629760961989</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>190.2177045321223</v>
+        <v>190.2177045321224</v>
       </c>
       <c r="K9" t="n">
-        <v>362.310883367185</v>
+        <v>362.3108833671838</v>
       </c>
       <c r="L9" t="n">
-        <v>300.3151001174895</v>
+        <v>300.3151001174897</v>
       </c>
       <c r="M9" t="n">
-        <v>370.0059489821468</v>
+        <v>370.005948982147</v>
       </c>
       <c r="N9" t="n">
-        <v>394.3530922482245</v>
+        <v>394.3530922482247</v>
       </c>
       <c r="O9" t="n">
-        <v>338.3117987025565</v>
+        <v>338.3117987025568</v>
       </c>
       <c r="P9" t="n">
-        <v>251.9966948131502</v>
+        <v>251.9966948131503</v>
       </c>
       <c r="Q9" t="n">
-        <v>328.1069739656112</v>
+        <v>328.1069739656114</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>26.44568217978357</v>
+        <v>26.44568217978363</v>
       </c>
       <c r="K10" t="n">
-        <v>174.6066995266582</v>
+        <v>174.6066995266583</v>
       </c>
       <c r="L10" t="n">
-        <v>279.5237680912596</v>
+        <v>279.5237680912597</v>
       </c>
       <c r="M10" t="n">
-        <v>305.2126850597957</v>
+        <v>305.2126850597958</v>
       </c>
       <c r="N10" t="n">
-        <v>303.4449211301932</v>
+        <v>303.4449211301933</v>
       </c>
       <c r="O10" t="n">
-        <v>264.1024223701672</v>
+        <v>264.1024223701673</v>
       </c>
       <c r="P10" t="n">
-        <v>202.2269825633446</v>
+        <v>202.2269825633448</v>
       </c>
       <c r="Q10" t="n">
-        <v>55.73362173643208</v>
+        <v>55.73362173643217</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,25 +35494,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>103.6778299969399</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35722,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.3288951674331</v>
@@ -35737,13 +35737,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O15" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
         <v>479.4543240367771</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35974,16 +35974,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O18" t="n">
-        <v>228.3679864663288</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>439.190340064064</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,22 +36442,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>140.6875824748315</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36600,7 +36600,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
         <v>735.3001107902948</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36682,19 +36682,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>274.2960242312443</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36922,13 +36922,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>332.6181808359224</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,31 +37144,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>477.985332142731</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37396,16 +37396,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O36" t="n">
-        <v>22.33282074962425</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,25 +37618,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774958</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678998</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359206</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992802</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,25 +37700,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P40" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q40" t="n">
         <v>120.4022572998984</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902436</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>303.8786972770457</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>224.339029438562</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38107,7 +38107,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_9_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_9_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3215940.195276507</v>
+        <v>3217700.725579291</v>
       </c>
     </row>
     <row r="7">
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>230.1100279286432</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,10 +676,10 @@
         <v>412.2877386950441</v>
       </c>
       <c r="H2" t="n">
-        <v>251.0172508647437</v>
+        <v>308.5974454495113</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>94.24014755885155</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -831,13 +831,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.6385546828073</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>150.2028876639205</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>114.7793764994862</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -876,13 +876,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>155.5242071960778</v>
       </c>
       <c r="W4" t="n">
-        <v>28.15826128764012</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -946,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>122.935408774453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>156.5818672176181</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>223.5518288029175</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1056,25 +1056,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>5.537737505081349</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.4906595130011</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1107,19 +1107,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U7" t="n">
-        <v>100.5827519824191</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1144,13 +1144,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.5250233818693</v>
+        <v>11.52502338186935</v>
       </c>
       <c r="H8" t="n">
-        <v>280.2954527387568</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>122.935408774453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.5589059457607</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>223.5518288029175</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1293,7 +1293,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1305,13 +1305,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H10" t="n">
-        <v>147.161060211447</v>
+        <v>120.2786131750547</v>
       </c>
       <c r="I10" t="n">
-        <v>80.95114552392783</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1435,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784709</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1533,10 +1533,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>3.006892987834117</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1545,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>1.799772605716562</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1773,10 +1773,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>185.4721329513122</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1858,10 +1858,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>108.2950343703271</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2244,7 +2244,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2256,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2481,19 +2481,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>99.97427419833815</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2845,7 +2845,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>51.36569740310337</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3192,10 +3192,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>112.5284434523311</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3429,13 +3429,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>2.607010073152018</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3483,10 +3483,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>180.0179497934419</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695524</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3678,7 +3678,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428297</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012163</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>161.3555494301526</v>
       </c>
     </row>
     <row r="41">
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881302</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3903,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,10 +3912,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>99.97427419833809</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4152,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4306,52 +4306,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1518.579052670053</v>
+        <v>1518.579052670054</v>
       </c>
       <c r="C2" t="n">
-        <v>1518.579052670053</v>
+        <v>1518.579052670054</v>
       </c>
       <c r="D2" t="n">
-        <v>1518.579052670053</v>
+        <v>1518.579052670054</v>
       </c>
       <c r="E2" t="n">
-        <v>1132.790800071809</v>
+        <v>1286.144681024959</v>
       </c>
       <c r="F2" t="n">
-        <v>721.8048952822014</v>
+        <v>875.158776235352</v>
       </c>
       <c r="G2" t="n">
-        <v>305.352633974076</v>
+        <v>458.7065149272266</v>
       </c>
       <c r="H2" t="n">
-        <v>51.79985532281972</v>
+        <v>146.9919235640839</v>
       </c>
       <c r="I2" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J2" t="n">
-        <v>293.3053724073763</v>
+        <v>293.3053724073764</v>
       </c>
       <c r="K2" t="n">
-        <v>455.1003844723717</v>
+        <v>776.0043429178249</v>
       </c>
       <c r="L2" t="n">
-        <v>708.1191375964742</v>
+        <v>1013.627124136017</v>
       </c>
       <c r="M2" t="n">
-        <v>1349.142347216368</v>
+        <v>1309.69769069362</v>
       </c>
       <c r="N2" t="n">
-        <v>1654.617453451953</v>
+        <v>1693.744037126425</v>
       </c>
       <c r="O2" t="n">
-        <v>1929.733672768588</v>
+        <v>1968.86025644306</v>
       </c>
       <c r="P2" t="n">
-        <v>2448.618721147459</v>
+        <v>2487.745304821931</v>
       </c>
       <c r="Q2" t="n">
-        <v>2550.866182466514</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="R2" t="n">
         <v>2589.992766140986</v>
@@ -4397,37 +4397,37 @@
         <v>467.2653143615294</v>
       </c>
       <c r="F3" t="n">
-        <v>320.7307563884144</v>
+        <v>320.7307563884145</v>
       </c>
       <c r="G3" t="n">
         <v>183.6293921686806</v>
       </c>
       <c r="H3" t="n">
-        <v>85.99742130093836</v>
+        <v>85.99742130093821</v>
       </c>
       <c r="I3" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J3" t="n">
-        <v>201.9455071369554</v>
+        <v>77.11538214995069</v>
       </c>
       <c r="K3" t="n">
-        <v>323.3685994072345</v>
+        <v>282.3826491045401</v>
       </c>
       <c r="L3" t="n">
-        <v>900.09141451049</v>
+        <v>859.1054642077956</v>
       </c>
       <c r="M3" t="n">
-        <v>1230.34662179833</v>
+        <v>1123.044995703283</v>
       </c>
       <c r="N3" t="n">
-        <v>1515.680492231663</v>
+        <v>1408.378866136617</v>
       </c>
       <c r="O3" t="n">
-        <v>2144.409140067085</v>
+        <v>2037.107513972038</v>
       </c>
       <c r="P3" t="n">
-        <v>2316.738101020794</v>
+        <v>2524.714615879285</v>
       </c>
       <c r="Q3" t="n">
         <v>2589.992766140986</v>
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>833.9774911502419</v>
+        <v>933.3145714336757</v>
       </c>
       <c r="C4" t="n">
-        <v>665.041308222335</v>
+        <v>764.3783885057688</v>
       </c>
       <c r="D4" t="n">
-        <v>514.9246688099993</v>
+        <v>614.2617490934331</v>
       </c>
       <c r="E4" t="n">
-        <v>367.0115752276062</v>
+        <v>466.34865551104</v>
       </c>
       <c r="F4" t="n">
-        <v>220.1216277296958</v>
+        <v>319.4587080131296</v>
       </c>
       <c r="G4" t="n">
-        <v>51.79985532281972</v>
+        <v>319.4587080131296</v>
       </c>
       <c r="H4" t="n">
-        <v>51.79985532281972</v>
+        <v>167.7386194637149</v>
       </c>
       <c r="I4" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J4" t="n">
-        <v>54.03452733018415</v>
+        <v>54.03452733018416</v>
       </c>
       <c r="K4" t="n">
         <v>187.5436166159875</v>
@@ -4524,16 +4524,16 @@
         <v>1311.202309361123</v>
       </c>
       <c r="V4" t="n">
-        <v>1311.202309361123</v>
+        <v>1154.107150577206</v>
       </c>
       <c r="W4" t="n">
-        <v>1282.759621191789</v>
+        <v>1154.107150577206</v>
       </c>
       <c r="X4" t="n">
-        <v>1054.770070293772</v>
+        <v>1154.107150577206</v>
       </c>
       <c r="Y4" t="n">
-        <v>833.9774911502419</v>
+        <v>933.3145714336757</v>
       </c>
     </row>
     <row r="5">
@@ -4543,10 +4543,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>860.2154504701355</v>
+        <v>1587.443666017298</v>
       </c>
       <c r="C5" t="n">
-        <v>860.2154504701355</v>
+        <v>1218.481149076886</v>
       </c>
       <c r="D5" t="n">
         <v>860.2154504701355</v>
@@ -4567,25 +4567,25 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J5" t="n">
-        <v>189.986887110478</v>
+        <v>189.9868871104791</v>
       </c>
       <c r="K5" t="n">
-        <v>447.8319447135518</v>
+        <v>447.8319447135523</v>
       </c>
       <c r="L5" t="n">
-        <v>804.6133007477388</v>
+        <v>804.6133007477401</v>
       </c>
       <c r="M5" t="n">
-        <v>1233.270741187503</v>
+        <v>1233.270741187504</v>
       </c>
       <c r="N5" t="n">
-        <v>1673.478115539971</v>
+        <v>1673.478115539973</v>
       </c>
       <c r="O5" t="n">
-        <v>2075.818195082062</v>
+        <v>2075.818195082063</v>
       </c>
       <c r="P5" t="n">
-        <v>2384.705143645557</v>
+        <v>2384.705143645558</v>
       </c>
       <c r="Q5" t="n">
         <v>2568.493631507462</v>
@@ -4594,25 +4594,25 @@
         <v>2589.992766140986</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.81558556073</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.81558556073</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="U5" t="n">
-        <v>2307.652083320712</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="V5" t="n">
-        <v>1976.589195977141</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="W5" t="n">
-        <v>1623.820540707027</v>
+        <v>2364.182838057231</v>
       </c>
       <c r="X5" t="n">
-        <v>1250.354782445947</v>
+        <v>2364.182838057231</v>
       </c>
       <c r="Y5" t="n">
-        <v>860.2154504701355</v>
+        <v>1974.043506081419</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J6" t="n">
-        <v>115.2852578226161</v>
+        <v>240.1153828096209</v>
       </c>
       <c r="K6" t="n">
-        <v>563.7673318682815</v>
+        <v>426.7768722128335</v>
       </c>
       <c r="L6" t="n">
-        <v>1104.091621317939</v>
+        <v>724.0888213291482</v>
       </c>
       <c r="M6" t="n">
-        <v>1470.397510810264</v>
+        <v>1090.394710821474</v>
       </c>
       <c r="N6" t="n">
-        <v>1860.807072136007</v>
+        <v>1652.830557277516</v>
       </c>
       <c r="O6" t="n">
-        <v>2195.735752851538</v>
+        <v>1987.759237993047</v>
       </c>
       <c r="P6" t="n">
-        <v>2445.212480716556</v>
+        <v>2237.235965858066</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.061870084021</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>370.8526776630624</v>
+        <v>477.8057865266009</v>
       </c>
       <c r="C7" t="n">
-        <v>201.9164947351555</v>
+        <v>477.8057865266009</v>
       </c>
       <c r="D7" t="n">
-        <v>51.79985532281972</v>
+        <v>477.8057865266009</v>
       </c>
       <c r="E7" t="n">
-        <v>51.79985532281972</v>
+        <v>477.8057865266009</v>
       </c>
       <c r="F7" t="n">
-        <v>51.79985532281972</v>
+        <v>330.9158390286905</v>
       </c>
       <c r="G7" t="n">
-        <v>51.79985532281972</v>
+        <v>162.9396502905798</v>
       </c>
       <c r="H7" t="n">
-        <v>51.79985532281972</v>
+        <v>157.3459760430229</v>
       </c>
       <c r="I7" t="n">
         <v>51.79985532281972</v>
@@ -4755,22 +4755,22 @@
         <v>1646.983670153878</v>
       </c>
       <c r="T7" t="n">
-        <v>1646.983670153878</v>
+        <v>1424.049095695859</v>
       </c>
       <c r="U7" t="n">
-        <v>1545.384930777697</v>
+        <v>1134.931318706258</v>
       </c>
       <c r="V7" t="n">
-        <v>1290.70044257181</v>
+        <v>880.2468305003707</v>
       </c>
       <c r="W7" t="n">
-        <v>1001.28327253485</v>
+        <v>880.2468305003707</v>
       </c>
       <c r="X7" t="n">
-        <v>773.2937216368322</v>
+        <v>880.2468305003707</v>
       </c>
       <c r="Y7" t="n">
-        <v>552.501142493302</v>
+        <v>659.4542513568406</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1870.570385955436</v>
+        <v>1587.443666017298</v>
       </c>
       <c r="C8" t="n">
-        <v>1501.607869015024</v>
+        <v>1218.481149076886</v>
       </c>
       <c r="D8" t="n">
-        <v>1143.342170408274</v>
+        <v>860.2154504701355</v>
       </c>
       <c r="E8" t="n">
-        <v>757.5539178100294</v>
+        <v>474.4271978718913</v>
       </c>
       <c r="F8" t="n">
-        <v>750.6084170608259</v>
+        <v>63.44129308228371</v>
       </c>
       <c r="G8" t="n">
-        <v>334.9265752609579</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H8" t="n">
         <v>51.79985532281972</v>
@@ -4804,22 +4804,22 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J8" t="n">
-        <v>189.9868871104781</v>
+        <v>189.9868871104782</v>
       </c>
       <c r="K8" t="n">
-        <v>447.8319447135511</v>
+        <v>447.8319447135512</v>
       </c>
       <c r="L8" t="n">
-        <v>804.6133007477383</v>
+        <v>804.6133007477388</v>
       </c>
       <c r="M8" t="n">
-        <v>1233.270741187502</v>
+        <v>1233.270741187503</v>
       </c>
       <c r="N8" t="n">
-        <v>1673.478115539971</v>
+        <v>1673.478115539972</v>
       </c>
       <c r="O8" t="n">
-        <v>2075.818195082061</v>
+        <v>2075.818195082062</v>
       </c>
       <c r="P8" t="n">
         <v>2384.705143645557</v>
@@ -4831,25 +4831,25 @@
         <v>2589.992766140986</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.81558556073</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="T8" t="n">
-        <v>2257.170226019558</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="U8" t="n">
-        <v>2257.170226019558</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="V8" t="n">
-        <v>2257.170226019558</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="W8" t="n">
-        <v>2257.170226019558</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="X8" t="n">
-        <v>2257.170226019558</v>
+        <v>2364.182838057231</v>
       </c>
       <c r="Y8" t="n">
-        <v>2257.170226019558</v>
+        <v>1974.043506081419</v>
       </c>
     </row>
     <row r="9">
@@ -4868,16 +4868,16 @@
         <v>607.9171255411325</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6796705356769</v>
+        <v>448.679670535677</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1451125625619</v>
+        <v>302.145112562562</v>
       </c>
       <c r="G9" t="n">
         <v>165.4559591202886</v>
       </c>
       <c r="H9" t="n">
-        <v>71.80507655065196</v>
+        <v>71.80507655065198</v>
       </c>
       <c r="I9" t="n">
         <v>51.79985532281972</v>
@@ -4886,13 +4886,13 @@
         <v>240.1153828096209</v>
       </c>
       <c r="K9" t="n">
-        <v>598.8031573431329</v>
+        <v>426.7768722128337</v>
       </c>
       <c r="L9" t="n">
-        <v>896.1151064594476</v>
+        <v>724.0888213291485</v>
       </c>
       <c r="M9" t="n">
-        <v>1262.420995951773</v>
+        <v>1090.394710821474</v>
       </c>
       <c r="N9" t="n">
         <v>1652.830557277516</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>727.1359052451305</v>
+        <v>955.125456143148</v>
       </c>
       <c r="C10" t="n">
-        <v>727.1359052451305</v>
+        <v>786.1892732152411</v>
       </c>
       <c r="D10" t="n">
-        <v>577.0192658327948</v>
+        <v>636.0726338029053</v>
       </c>
       <c r="E10" t="n">
-        <v>429.1061722504016</v>
+        <v>488.1595402205122</v>
       </c>
       <c r="F10" t="n">
-        <v>282.2162247524913</v>
+        <v>341.2695927226018</v>
       </c>
       <c r="G10" t="n">
-        <v>282.2162247524913</v>
+        <v>173.2934039844912</v>
       </c>
       <c r="H10" t="n">
-        <v>133.5686891853731</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I10" t="n">
         <v>51.79985532281972</v>
@@ -5004,10 +5004,10 @@
         <v>1357.566500116918</v>
       </c>
       <c r="X10" t="n">
-        <v>1129.5769492189</v>
+        <v>1357.566500116918</v>
       </c>
       <c r="Y10" t="n">
-        <v>908.7843700753702</v>
+        <v>1136.773920973388</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,61 +5029,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273909</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400717</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121648</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121648</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="14">
@@ -5272,16 +5272,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5290,16 +5290,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>948.5505208511906</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908938</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908938</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908938</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2035.268256189238</v>
+        <v>2009.716956647858</v>
       </c>
       <c r="U16" t="n">
-        <v>1746.193029533436</v>
+        <v>1720.641729992056</v>
       </c>
       <c r="V16" t="n">
-        <v>1491.508541327549</v>
+        <v>1465.957241786169</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1176.540071749208</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>948.5505208511906</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>948.5505208511906</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5527,40 +5527,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5588,7 +5588,7 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
         <v>95.58405025273903</v>
@@ -5597,19 +5597,19 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>409.1360811687896</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5767,7 +5767,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5779,25 +5779,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5825,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
         <v>245.2306927803937</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429802</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429802</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5968,70 +5968,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362693</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6080,7 +6080,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>194.8007783998286</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>194.8007783998286</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6217,16 +6217,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6235,13 +6235,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6317,7 +6317,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6451,7 +6451,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6478,7 +6478,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6545,19 +6545,19 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>409.1360811687896</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2395.078540748843</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>2106.003314093041</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1851.318825887154</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="32">
@@ -6688,31 +6688,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6721,7 +6721,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2333.297989183966</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>2044.222762528164</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1789.538274322277</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1500.121104285317</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1272.131553387299</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="35">
@@ -6919,40 +6919,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7028,10 +7028,10 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>803.2707707770319</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C37" t="n">
-        <v>634.334587849125</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D37" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
         <v>484.8112968429803</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W37" t="n">
-        <v>1433.701365648819</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X37" t="n">
-        <v>1205.711814750802</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y37" t="n">
-        <v>984.9192356072716</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406471</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168629</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362692</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111709</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,28 +7247,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273913</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.230692780394</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516147</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167374</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793926</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400726</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121657</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121657</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121657</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121657</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270456</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.46108051051</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.28419561186</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138424</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703123</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7390,7 +7390,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7399,34 +7399,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192601</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7435,25 +7435,25 @@
         <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,34 +7484,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797193</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797193</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797193</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797193</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E43" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F43" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797193</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7639,16 +7639,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
@@ -7657,13 +7657,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7800,7 +7800,7 @@
         <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7981,16 +7981,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>15.55148677364684</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>348.4370131942333</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>79.36488908810105</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>65.71641987298243</v>
+        <v>26.19461818159724</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,16 +8057,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>84.69108553970739</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>66.98553110338656</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8075,10 +8075,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,19 +8294,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>245.4670104377199</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>173.7639243740404</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>20.1843750390658</v>
@@ -8534,16 +8534,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
         <v>173.7639243740396</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>3.183231456205249e-12</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -23421,10 +23421,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>145.6085800303782</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.4949402405073</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23661,10 +23661,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>31.93331737597606</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>57.22910392194174</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>146.8157004124962</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24144,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24369,19 +24369,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>45.44677382459309</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>166.0397529241849</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25080,10 +25080,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>104.8770068749571</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25317,13 +25317,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>146.0084629450603</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25371,10 +25371,10 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>72.11969353038606</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194089</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
     </row>
     <row r="41">
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>65.54986409393075</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>711742.7704138664</v>
+        <v>711742.7704138665</v>
       </c>
     </row>
     <row r="13">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312482</v>
+        <v>718411.5486312483</v>
       </c>
       <c r="C2" t="n">
-        <v>718411.5486312482</v>
+        <v>718411.5486312481</v>
       </c>
       <c r="D2" t="n">
         <v>718411.5486312481</v>
       </c>
       <c r="E2" t="n">
+        <v>706253.2747287551</v>
+      </c>
+      <c r="F2" t="n">
+        <v>706253.2747287555</v>
+      </c>
+      <c r="G2" t="n">
+        <v>706253.2747287554</v>
+      </c>
+      <c r="H2" t="n">
+        <v>706253.2747287556</v>
+      </c>
+      <c r="I2" t="n">
         <v>706253.2747287558</v>
       </c>
-      <c r="F2" t="n">
-        <v>706253.2747287559</v>
-      </c>
-      <c r="G2" t="n">
-        <v>706253.2747287557</v>
-      </c>
-      <c r="H2" t="n">
-        <v>706253.2747287552</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
+        <v>706253.2747287556</v>
+      </c>
+      <c r="K2" t="n">
+        <v>706253.274728755</v>
+      </c>
+      <c r="L2" t="n">
         <v>706253.2747287551</v>
       </c>
-      <c r="J2" t="n">
-        <v>706253.2747287558</v>
-      </c>
-      <c r="K2" t="n">
-        <v>706253.2747287551</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>706253.2747287556</v>
-      </c>
-      <c r="M2" t="n">
-        <v>706253.2747287557</v>
       </c>
       <c r="N2" t="n">
         <v>706253.2747287556</v>
       </c>
       <c r="O2" t="n">
-        <v>706253.2747287552</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="P2" t="n">
         <v>706253.2747287558</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>939682.9358753986</v>
+        <v>939682.9358753987</v>
       </c>
       <c r="C3" t="n">
         <v>172764.3597898923</v>
@@ -26374,7 +26374,7 @@
         <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>500888.8677457509</v>
+        <v>500888.8677457506</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>169414.016826048</v>
+        <v>169414.0168260481</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>130884.4569042353</v>
+        <v>130884.4569042352</v>
       </c>
       <c r="N3" t="n">
-        <v>4.708776941697579e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26420,28 +26420,28 @@
         <v>159785.8388151599</v>
       </c>
       <c r="C4" t="n">
-        <v>129066.754725248</v>
+        <v>129066.7547252479</v>
       </c>
       <c r="D4" t="n">
-        <v>129066.754725248</v>
+        <v>129066.7547252479</v>
       </c>
       <c r="E4" t="n">
-        <v>6287.480531694971</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="F4" t="n">
-        <v>6287.480531695092</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="G4" t="n">
-        <v>6287.480531695117</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="H4" t="n">
         <v>6287.480531695052</v>
       </c>
       <c r="I4" t="n">
+        <v>6287.480531695051</v>
+      </c>
+      <c r="J4" t="n">
         <v>6287.480531695052</v>
-      </c>
-      <c r="J4" t="n">
-        <v>6287.480531695051</v>
       </c>
       <c r="K4" t="n">
         <v>6287.480531695052</v>
@@ -26453,10 +26453,10 @@
         <v>6287.480531695051</v>
       </c>
       <c r="N4" t="n">
+        <v>6287.480531695051</v>
+      </c>
+      <c r="O4" t="n">
         <v>6287.480531695052</v>
-      </c>
-      <c r="O4" t="n">
-        <v>6287.480531695039</v>
       </c>
       <c r="P4" t="n">
         <v>6287.480531695051</v>
@@ -26505,7 +26505,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="N5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="O5" t="n">
         <v>101122.5298239071</v>
@@ -26524,46 +26524,46 @@
         <v>-470402.3009563012</v>
       </c>
       <c r="C6" t="n">
-        <v>323099.3447545984</v>
+        <v>323099.3447545982</v>
       </c>
       <c r="D6" t="n">
         <v>495863.7045444903</v>
       </c>
       <c r="E6" t="n">
-        <v>97607.01737304583</v>
+        <v>97919.65870196666</v>
       </c>
       <c r="F6" t="n">
-        <v>598495.8851187971</v>
+        <v>598808.5264477177</v>
       </c>
       <c r="G6" t="n">
-        <v>598495.8851187966</v>
+        <v>598808.5264477176</v>
       </c>
       <c r="H6" t="n">
-        <v>598495.8851187963</v>
+        <v>598808.5264477178</v>
       </c>
       <c r="I6" t="n">
-        <v>598495.885118796</v>
+        <v>598808.526447718</v>
       </c>
       <c r="J6" t="n">
-        <v>429081.8682927486</v>
+        <v>429394.5096216695</v>
       </c>
       <c r="K6" t="n">
-        <v>598495.885118796</v>
+        <v>598808.5264477172</v>
       </c>
       <c r="L6" t="n">
-        <v>598495.8851187965</v>
+        <v>598808.5264477173</v>
       </c>
       <c r="M6" t="n">
-        <v>467611.4282145613</v>
+        <v>467924.0695434825</v>
       </c>
       <c r="N6" t="n">
-        <v>598495.8851187959</v>
+        <v>598808.5264477178</v>
       </c>
       <c r="O6" t="n">
-        <v>598495.8851187965</v>
+        <v>598808.5264477177</v>
       </c>
       <c r="P6" t="n">
-        <v>598495.8851187968</v>
+        <v>598808.5264477181</v>
       </c>
     </row>
   </sheetData>
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="C4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="D4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26825,10 +26825,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26968,7 +26968,7 @@
         <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>428.2691096918293</v>
+        <v>428.269109691829</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26995,10 +26995,10 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>525.2100965644024</v>
+        <v>525.2100965644019</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352466</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644024</v>
+        <v>525.2100965644019</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644024</v>
+        <v>525.2100965644019</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27387,7 +27387,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>151.8203421436185</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>57.58019458476755</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>94.24014755885155</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27551,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.6385546828073</v>
       </c>
       <c r="H4" t="n">
-        <v>150.2028876639205</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>114.7793764994862</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27596,13 +27596,13 @@
         <v>286.245260737819</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>96.61343612775019</v>
       </c>
       <c r="W4" t="n">
-        <v>258.3647370489509</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27666,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T5" t="n">
         <v>206.5589059457607</v>
       </c>
       <c r="U5" t="n">
-        <v>94.46156855955718</v>
+        <v>251.0434357771752</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>125.6891399144955</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27776,25 +27776,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.2964268507295</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.161060211447</v>
+        <v>141.6233227063656</v>
       </c>
       <c r="I7" t="n">
-        <v>104.4906595130011</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27827,19 +27827,19 @@
         <v>194.4851693340911</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7052287134384</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>185.6438472372865</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27864,13 +27864,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
       <c r="H8" t="n">
-        <v>20.49083450970301</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I8" t="n">
         <v>64.8355654476797</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U8" t="n">
         <v>251.0434357771752</v>
@@ -27918,10 +27918,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>146.1792718755516</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28013,7 +28013,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.2964268507295</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>26.88244703639222</v>
       </c>
       <c r="I10" t="n">
-        <v>23.53951398907328</v>
+        <v>104.4906595130011</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28076,7 +28076,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28377,7 +28377,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>8.952838470577262e-13</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28578,7 +28578,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -30516,7 +30516,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>-1.56319401867222e-12</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,34 +32068,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>391.925066926462</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,22 +32317,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>303.4024373464761</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32800,10 +32800,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33037,10 +33037,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33265,7 +33265,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>303.4024373464761</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33277,10 +33277,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33748,13 +33748,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>463.9598929192557</v>
+        <v>593.5422977113961</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135343</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162565</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,34 +33964,34 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659451</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521102</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.307619600775</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420756</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422588</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473075</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862125</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>463.9598929192539</v>
+        <v>593.5422977113961</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437246</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742441</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>364.3208035245835</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34701,16 +34701,16 @@
         <v>243.9449667520774</v>
       </c>
       <c r="K2" t="n">
-        <v>163.429305116157</v>
+        <v>487.5747176873218</v>
       </c>
       <c r="L2" t="n">
-        <v>255.574498105154</v>
+        <v>240.0230113315071</v>
       </c>
       <c r="M2" t="n">
-        <v>647.4981915352464</v>
+        <v>299.0611783410131</v>
       </c>
       <c r="N2" t="n">
-        <v>308.5607133692782</v>
+        <v>387.9256024573792</v>
       </c>
       <c r="O2" t="n">
         <v>277.8951710269035</v>
@@ -34722,7 +34722,7 @@
         <v>103.2802639586414</v>
       </c>
       <c r="R2" t="n">
-        <v>39.52180169138521</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,16 +34777,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>151.662274559733</v>
+        <v>25.57123921932421</v>
       </c>
       <c r="K3" t="n">
-        <v>122.649588151797</v>
+        <v>207.3406736915044</v>
       </c>
       <c r="L3" t="n">
         <v>582.5482980840966</v>
       </c>
       <c r="M3" t="n">
-        <v>333.5911184725661</v>
+        <v>266.6055873691795</v>
       </c>
       <c r="N3" t="n">
         <v>288.2160307407405</v>
@@ -34795,10 +34795,10 @@
         <v>635.0794422580011</v>
       </c>
       <c r="P3" t="n">
-        <v>174.0696575289998</v>
+        <v>492.5324261689369</v>
       </c>
       <c r="Q3" t="n">
-        <v>276.0148132527188</v>
+        <v>65.9375255168697</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35014,19 +35014,19 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>64.12666919171352</v>
+        <v>190.2177045321224</v>
       </c>
       <c r="K6" t="n">
-        <v>453.0121960057227</v>
+        <v>188.5469589931441</v>
       </c>
       <c r="L6" t="n">
-        <v>545.7821105552094</v>
+        <v>300.3151001174896</v>
       </c>
       <c r="M6" t="n">
         <v>370.0059489821469</v>
       </c>
       <c r="N6" t="n">
-        <v>394.3530922482246</v>
+        <v>568.1170166222649</v>
       </c>
       <c r="O6" t="n">
         <v>338.3117987025566</v>
@@ -35035,7 +35035,7 @@
         <v>251.9966948131503</v>
       </c>
       <c r="Q6" t="n">
-        <v>118.0296862297622</v>
+        <v>328.1069739656113</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35254,7 +35254,7 @@
         <v>190.2177045321224</v>
       </c>
       <c r="K9" t="n">
-        <v>362.3108833671838</v>
+        <v>188.5469589931442</v>
       </c>
       <c r="L9" t="n">
         <v>300.3151001174897</v>
@@ -35263,7 +35263,7 @@
         <v>370.005948982147</v>
       </c>
       <c r="N9" t="n">
-        <v>394.3530922482247</v>
+        <v>568.1170166222643</v>
       </c>
       <c r="O9" t="n">
         <v>338.3117987025568</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,16 +35494,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,19 +35731,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,28 +35959,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>165.5609983721171</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36144,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36381,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36448,10 +36448,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36685,10 +36685,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36840,7 +36840,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,7 +36913,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>165.5609983721171</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36925,10 +36925,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37080,7 +37080,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O32" t="n">
         <v>696.488651224316</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37396,13 +37396,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>332.6181808359224</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317369</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396422</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367773</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902953</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243165</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,28 +37618,28 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774958</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678998</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674334</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641942</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>332.6181808359206</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992802</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37700,25 +37700,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
         <v>120.4022572998984</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902436</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>224.339029438562</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
